--- a/FASE1/DOCS/EVIDENCIAS_GRUPALES/ENTREGABLES/Carta Gantt.xlsx
+++ b/FASE1/DOCS/EVIDENCIAS_GRUPALES/ENTREGABLES/Carta Gantt.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="5W8JobEmolLw5/BkqfWfL59hQmA7dQYS6h8JJPXwbwU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="XXnSPpeH1vJNtzV56+RhcAMr0YXQa3QggsKnvqA5Nfs="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t xml:space="preserve">Carta Gantt </t>
   </si>
@@ -129,24 +129,6 @@
     <t>Organización del equipo</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>Hitos de Documentación</t>
-  </si>
-  <si>
-    <t>Aprobación Acta de Constitución</t>
-  </si>
-  <si>
-    <t>Entrega Documento 1.1</t>
-  </si>
-  <si>
-    <t>Entrega Documento 1.2</t>
-  </si>
-  <si>
-    <t>Entrega Documento 1.3</t>
-  </si>
-  <si>
     <t>3.0</t>
   </si>
   <si>
@@ -174,34 +156,46 @@
     <t>Fase de Desarrollo</t>
   </si>
   <si>
-    <t>Módulo Gestión de Usuarios</t>
-  </si>
-  <si>
-    <t>Módulo Gestión de Productos</t>
-  </si>
-  <si>
-    <t>Módulo Gestión de Pedidos y Ventas</t>
-  </si>
-  <si>
-    <t>Módulo Inventario y Reportes</t>
-  </si>
-  <si>
     <t>Implementación ambiente de desarrollo</t>
   </si>
   <si>
-    <t xml:space="preserve">Creacion de los script de tablas base de datos </t>
-  </si>
-  <si>
-    <t>Mantenedores BackOffice (8 módulos) especificar mantenedores</t>
-  </si>
-  <si>
-    <t>Catálogo &amp; Carrito (Front Tienda)</t>
-  </si>
-  <si>
-    <t>Autenticación y Roles</t>
-  </si>
-  <si>
-    <t>Notificaciones por correo</t>
+    <t>Scripts de base de datos (tablas, relaciones)</t>
+  </si>
+  <si>
+    <t>Desarrollo sistema de registro de usuarios</t>
+  </si>
+  <si>
+    <t>Desarrollo sistem de autenticacion y roles</t>
+  </si>
+  <si>
+    <t>Desarrollo Catalogo de productos filtrables</t>
+  </si>
+  <si>
+    <t>Desarrollo flujo carro de compras</t>
+  </si>
+  <si>
+    <t>Desarrollo de sistema de pedidos y seguimiento</t>
+  </si>
+  <si>
+    <t>Desarrollo BackOffice sistema de registro de usuarios</t>
+  </si>
+  <si>
+    <t>Desarrollo BackOffice sistema de autenticacion y roles</t>
+  </si>
+  <si>
+    <t>Desarrollo BackOffice catalogo de productos filtrables</t>
+  </si>
+  <si>
+    <t>Desarrollo BackOffice flujo carro de compras</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Desarrollo BackOffice sistema de pedidos y seguimiento</t>
+  </si>
+  <si>
+    <t>Notificaciones por correo (registro, compra, estado pedido)</t>
   </si>
   <si>
     <t>Reportes PDF/XLS</t>
@@ -213,12 +207,15 @@
     <t>Fase de Pruebas y QA</t>
   </si>
   <si>
+    <t>Implementación ambiente de pruebas</t>
+  </si>
+  <si>
+    <t>Pruebas Funcionales</t>
+  </si>
+  <si>
     <t>Pruebas de integración</t>
   </si>
   <si>
-    <t>Pruebas Funcionales</t>
-  </si>
-  <si>
     <t>Pruebas con Usuarios</t>
   </si>
   <si>
@@ -240,7 +237,10 @@
     <t>Acta cierre de proyecto</t>
   </si>
   <si>
-    <t>ENTREGA FINAL + DOCUMENTACION + PRESENTACION</t>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Entrega final + documentación + presentación</t>
   </si>
   <si>
     <t>NOMBRE RECURSO</t>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>Diseñador</t>
+  </si>
+  <si>
+    <t>PMO</t>
+  </si>
+  <si>
+    <t>Project management office</t>
   </si>
 </sst>
 </file>
@@ -290,7 +296,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="d.m"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -343,6 +349,11 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color rgb="FFFEF2CB"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color rgb="FFA8D08D"/>
       <name val="Arial"/>
     </font>
@@ -351,8 +362,24 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF9900FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="5"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,8 +454,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF666666"/>
-        <bgColor rgb="FF666666"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -439,32 +466,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFC000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF92D050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
-        <bgColor rgb="FFBFBFBF"/>
+        <fgColor rgb="FF9900FF"/>
+        <bgColor rgb="FF9900FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -481,6 +484,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF38761D"/>
+        <bgColor rgb="FF38761D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF00B050"/>
       </patternFill>
@@ -492,7 +507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border/>
     <border>
       <left style="medium">
@@ -600,15 +615,6 @@
       <right/>
     </border>
     <border>
-      <left/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -647,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="104">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -682,10 +688,10 @@
     <xf borderId="9" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="9" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -723,7 +729,7 @@
     <xf borderId="4" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -736,44 +742,35 @@
     <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="13" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="15" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="13" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="14" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="12" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="8" fillId="12" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="13" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="15" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="12" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -781,44 +778,112 @@
     <xf borderId="8" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="15" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="8" fillId="15" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="16" fillId="12" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="15" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="15" fillId="12" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="16" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="16" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="17" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="8" fillId="17" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="18" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="18" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="16" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="18" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="16" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="16" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="18" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="18" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="8" fillId="19" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="9" fillId="19" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="19" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="15" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="9" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -826,26 +891,26 @@
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="20" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="9" fillId="16" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="9" fillId="17" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="9" fillId="20" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="9" fillId="21" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="22" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="9" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="23" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1063,7 +1128,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.5"/>
+    <col customWidth="1" min="1" max="1" width="4.25"/>
     <col customWidth="1" min="2" max="2" width="49.63"/>
     <col customWidth="1" min="3" max="5" width="2.88"/>
     <col customWidth="1" min="6" max="6" width="4.0"/>
@@ -1472,17 +1537,15 @@
     <row r="9">
       <c r="A9" s="5"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="C9" s="19"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="19" t="s">
-        <v>9</v>
+      <c r="J9" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -1490,8 +1553,8 @@
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="19" t="s">
-        <v>10</v>
+      <c r="Q9" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -1499,8 +1562,8 @@
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
       <c r="W9" s="14"/>
-      <c r="X9" s="19" t="s">
-        <v>11</v>
+      <c r="X9" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
@@ -1508,8 +1571,8 @@
       <c r="AB9" s="13"/>
       <c r="AC9" s="13"/>
       <c r="AD9" s="14"/>
-      <c r="AE9" s="19" t="s">
-        <v>12</v>
+      <c r="AE9" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="AF9" s="13"/>
       <c r="AG9" s="13"/>
@@ -1518,7 +1581,7 @@
       <c r="AJ9" s="13"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM9" s="13"/>
       <c r="AN9" s="13"/>
@@ -1526,7 +1589,7 @@
       <c r="AP9" s="13"/>
       <c r="AQ9" s="13"/>
       <c r="AR9" s="14"/>
-      <c r="AS9" s="19" t="s">
+      <c r="AS9" s="20" t="s">
         <v>13</v>
       </c>
       <c r="AT9" s="13"/>
@@ -1535,7 +1598,7 @@
       <c r="AW9" s="13"/>
       <c r="AX9" s="13"/>
       <c r="AY9" s="14"/>
-      <c r="AZ9" s="19" t="s">
+      <c r="AZ9" s="20" t="s">
         <v>14</v>
       </c>
       <c r="BA9" s="13"/>
@@ -1544,7 +1607,7 @@
       <c r="BD9" s="13"/>
       <c r="BE9" s="13"/>
       <c r="BF9" s="14"/>
-      <c r="BG9" s="19" t="s">
+      <c r="BG9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="BH9" s="13"/>
@@ -1553,7 +1616,7 @@
       <c r="BK9" s="13"/>
       <c r="BL9" s="13"/>
       <c r="BM9" s="14"/>
-      <c r="BN9" s="19" t="s">
+      <c r="BN9" s="20" t="s">
         <v>16</v>
       </c>
       <c r="BO9" s="13"/>
@@ -1562,7 +1625,7 @@
       <c r="BR9" s="13"/>
       <c r="BS9" s="13"/>
       <c r="BT9" s="14"/>
-      <c r="BU9" s="19" t="s">
+      <c r="BU9" s="20" t="s">
         <v>17</v>
       </c>
       <c r="BV9" s="13"/>
@@ -1571,7 +1634,7 @@
       <c r="BY9" s="13"/>
       <c r="BZ9" s="13"/>
       <c r="CA9" s="14"/>
-      <c r="CB9" s="19" t="s">
+      <c r="CB9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="CC9" s="13"/>
@@ -1580,7 +1643,7 @@
       <c r="CF9" s="13"/>
       <c r="CG9" s="13"/>
       <c r="CH9" s="14"/>
-      <c r="CI9" s="19" t="s">
+      <c r="CI9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="CJ9" s="13"/>
@@ -1589,7 +1652,7 @@
       <c r="CM9" s="13"/>
       <c r="CN9" s="13"/>
       <c r="CO9" s="14"/>
-      <c r="CP9" s="19" t="s">
+      <c r="CP9" s="20" t="s">
         <v>20</v>
       </c>
       <c r="CQ9" s="13"/>
@@ -1598,7 +1661,7 @@
       <c r="CT9" s="13"/>
       <c r="CU9" s="13"/>
       <c r="CV9" s="14"/>
-      <c r="CW9" s="19" t="s">
+      <c r="CW9" s="20" t="s">
         <v>21</v>
       </c>
       <c r="CX9" s="13"/>
@@ -1607,7 +1670,7 @@
       <c r="DA9" s="13"/>
       <c r="DB9" s="13"/>
       <c r="DC9" s="14"/>
-      <c r="DD9" s="19" t="s">
+      <c r="DD9" s="20" t="s">
         <v>22</v>
       </c>
       <c r="DE9" s="13"/>
@@ -1616,7 +1679,7 @@
       <c r="DH9" s="13"/>
       <c r="DI9" s="13"/>
       <c r="DJ9" s="14"/>
-      <c r="DK9" s="19" t="s">
+      <c r="DK9" s="20" t="s">
         <v>23</v>
       </c>
       <c r="DL9" s="13"/>
@@ -1625,7 +1688,7 @@
       <c r="DO9" s="13"/>
       <c r="DP9" s="13"/>
       <c r="DQ9" s="14"/>
-      <c r="DR9" s="19" t="s">
+      <c r="DR9" s="20" t="s">
         <v>24</v>
       </c>
       <c r="DS9" s="13"/>
@@ -1634,7 +1697,7 @@
       <c r="DV9" s="13"/>
       <c r="DW9" s="13"/>
       <c r="DX9" s="14"/>
-      <c r="DY9" s="19" t="s">
+      <c r="DY9" s="20" t="s">
         <v>25</v>
       </c>
       <c r="DZ9" s="13"/>
@@ -2220,9 +2283,9 @@
       <c r="O12" s="40"/>
       <c r="P12" s="40"/>
       <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
@@ -2356,14 +2419,14 @@
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
       <c r="Q13" s="40"/>
       <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="44"/>
       <c r="U13" s="44"/>
       <c r="V13" s="37"/>
       <c r="W13" s="37"/>
@@ -2501,17 +2564,17 @@
       <c r="N14" s="37"/>
       <c r="O14" s="37"/>
       <c r="P14" s="44"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
       <c r="AB14" s="37"/>
       <c r="AC14" s="37"/>
       <c r="AD14" s="37"/>
@@ -2642,17 +2705,17 @@
       <c r="N15" s="37"/>
       <c r="O15" s="37"/>
       <c r="P15" s="44"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
       <c r="AB15" s="37"/>
       <c r="AC15" s="37"/>
       <c r="AD15" s="37"/>
@@ -2763,10 +2826,10 @@
       <c r="EE15" s="37"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="49" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="37"/>
@@ -2904,10 +2967,10 @@
       <c r="EE16" s="37"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="49">
-        <v>45659.0</v>
-      </c>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="50">
+        <v>45660.0</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="37"/>
@@ -2924,31 +2987,31 @@
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
       <c r="X17" s="51"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
       <c r="AB17" s="44"/>
       <c r="AC17" s="44"/>
       <c r="AD17" s="44"/>
       <c r="AE17" s="44"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="37"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="37"/>
-      <c r="AN17" s="37"/>
-      <c r="AO17" s="37"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="44"/>
+      <c r="AK17" s="44"/>
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="44"/>
+      <c r="AN17" s="44"/>
+      <c r="AO17" s="44"/>
       <c r="AP17" s="37"/>
       <c r="AQ17" s="37"/>
       <c r="AR17" s="37"/>
@@ -3045,10 +3108,10 @@
       <c r="EE17" s="37"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="49">
-        <v>45690.0</v>
-      </c>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="52">
+        <v>45691.0</v>
+      </c>
+      <c r="B18" s="53" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="37"/>
@@ -3065,31 +3128,31 @@
       <c r="N18" s="37"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
       <c r="X18" s="51"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
       <c r="AB18" s="44"/>
       <c r="AC18" s="44"/>
       <c r="AD18" s="44"/>
       <c r="AE18" s="44"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="37"/>
-      <c r="AN18" s="37"/>
-      <c r="AO18" s="37"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="44"/>
+      <c r="AK18" s="44"/>
+      <c r="AL18" s="44"/>
+      <c r="AM18" s="44"/>
+      <c r="AN18" s="44"/>
+      <c r="AO18" s="44"/>
       <c r="AP18" s="37"/>
       <c r="AQ18" s="37"/>
       <c r="AR18" s="37"/>
@@ -3186,10 +3249,10 @@
       <c r="EE18" s="37"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="49">
-        <v>45718.0</v>
-      </c>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="54">
+        <v>45719.0</v>
+      </c>
+      <c r="B19" s="55" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="37"/>
@@ -3206,45 +3269,43 @@
       <c r="N19" s="37"/>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="51"/>
       <c r="X19" s="51"/>
       <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="37"/>
-      <c r="AI19" s="37"/>
-      <c r="AJ19" s="37"/>
-      <c r="AK19" s="37"/>
-      <c r="AL19" s="37"/>
-      <c r="AM19" s="37"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AK19" s="57"/>
+      <c r="AL19" s="57"/>
+      <c r="AM19" s="58"/>
       <c r="AN19" s="37"/>
       <c r="AO19" s="37"/>
-      <c r="AP19" s="37"/>
-      <c r="AQ19" s="37"/>
-      <c r="AR19" s="37"/>
-      <c r="AS19" s="37"/>
-      <c r="AT19" s="37"/>
-      <c r="AU19" s="37"/>
-      <c r="AV19" s="37"/>
-      <c r="AW19" s="37"/>
-      <c r="AX19" s="37"/>
-      <c r="AY19" s="37"/>
-      <c r="AZ19" s="37"/>
-      <c r="BA19" s="37"/>
-      <c r="BB19" s="37"/>
-      <c r="BC19" s="37"/>
+      <c r="AP19" s="44"/>
+      <c r="AQ19" s="44"/>
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="44"/>
+      <c r="AT19" s="44"/>
+      <c r="AU19" s="44"/>
+      <c r="AV19" s="44"/>
+      <c r="AW19" s="44"/>
+      <c r="AX19" s="44"/>
+      <c r="AY19" s="44"/>
+      <c r="AZ19" s="44"/>
+      <c r="BA19" s="44"/>
+      <c r="BB19" s="44"/>
+      <c r="BC19" s="44"/>
       <c r="BD19" s="37"/>
       <c r="BE19" s="37"/>
       <c r="BF19" s="37"/>
@@ -3327,10 +3388,10 @@
       <c r="EE19" s="37"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="49">
-        <v>45749.0</v>
-      </c>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="54">
+        <v>45750.0</v>
+      </c>
+      <c r="B20" s="59" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="37"/>
@@ -3347,29 +3408,29 @@
       <c r="N20" s="37"/>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="37"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="60"/>
+      <c r="AK20" s="61"/>
+      <c r="AL20" s="61"/>
+      <c r="AM20" s="61"/>
       <c r="AN20" s="37"/>
       <c r="AO20" s="37"/>
       <c r="AP20" s="37"/>
@@ -3468,11 +3529,11 @@
       <c r="EE20" s="37"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="54">
+        <v>45780.0</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>44</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
@@ -3501,21 +3562,21 @@
       <c r="AA21" s="37"/>
       <c r="AB21" s="37"/>
       <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="37"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="37"/>
-      <c r="AM21" s="37"/>
-      <c r="AN21" s="37"/>
-      <c r="AO21" s="37"/>
-      <c r="AP21" s="37"/>
-      <c r="AQ21" s="37"/>
-      <c r="AR21" s="37"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="56"/>
+      <c r="AL21" s="44"/>
+      <c r="AM21" s="44"/>
+      <c r="AN21" s="44"/>
+      <c r="AO21" s="44"/>
+      <c r="AP21" s="58"/>
+      <c r="AQ21" s="58"/>
+      <c r="AR21" s="58"/>
       <c r="AS21" s="37"/>
       <c r="AT21" s="37"/>
       <c r="AU21" s="37"/>
@@ -3527,18 +3588,18 @@
       <c r="BA21" s="37"/>
       <c r="BB21" s="37"/>
       <c r="BC21" s="37"/>
-      <c r="BD21" s="37"/>
-      <c r="BE21" s="37"/>
-      <c r="BF21" s="37"/>
-      <c r="BG21" s="37"/>
-      <c r="BH21" s="37"/>
-      <c r="BI21" s="37"/>
-      <c r="BJ21" s="37"/>
-      <c r="BK21" s="37"/>
-      <c r="BL21" s="37"/>
-      <c r="BM21" s="37"/>
-      <c r="BN21" s="37"/>
-      <c r="BO21" s="37"/>
+      <c r="BD21" s="44"/>
+      <c r="BE21" s="44"/>
+      <c r="BF21" s="44"/>
+      <c r="BG21" s="44"/>
+      <c r="BH21" s="44"/>
+      <c r="BI21" s="44"/>
+      <c r="BJ21" s="44"/>
+      <c r="BK21" s="44"/>
+      <c r="BL21" s="44"/>
+      <c r="BM21" s="44"/>
+      <c r="BN21" s="44"/>
+      <c r="BO21" s="44"/>
       <c r="BP21" s="37"/>
       <c r="BQ21" s="37"/>
       <c r="BR21" s="37"/>
@@ -3608,11 +3669,11 @@
       <c r="ED21" s="37"/>
       <c r="EE21" s="37"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="54">
-        <v>45660.0</v>
-      </c>
-      <c r="B22" s="35" t="s">
+    <row r="22" ht="15.0" customHeight="1">
+      <c r="A22" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="63" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="37"/>
@@ -3640,66 +3701,66 @@
       <c r="Y22" s="37"/>
       <c r="Z22" s="37"/>
       <c r="AA22" s="37"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="44"/>
       <c r="AI22" s="37"/>
-      <c r="AJ22" s="37"/>
-      <c r="AK22" s="37"/>
-      <c r="AL22" s="37"/>
-      <c r="AM22" s="37"/>
-      <c r="AN22" s="37"/>
-      <c r="AO22" s="37"/>
-      <c r="AP22" s="37"/>
-      <c r="AQ22" s="37"/>
-      <c r="AR22" s="37"/>
-      <c r="AS22" s="37"/>
-      <c r="AT22" s="37"/>
-      <c r="AU22" s="37"/>
-      <c r="AV22" s="37"/>
-      <c r="AW22" s="37"/>
-      <c r="AX22" s="37"/>
-      <c r="AY22" s="37"/>
-      <c r="AZ22" s="37"/>
-      <c r="BA22" s="37"/>
-      <c r="BB22" s="37"/>
-      <c r="BC22" s="37"/>
-      <c r="BD22" s="37"/>
-      <c r="BE22" s="37"/>
-      <c r="BF22" s="37"/>
-      <c r="BG22" s="37"/>
-      <c r="BH22" s="37"/>
-      <c r="BI22" s="37"/>
-      <c r="BJ22" s="37"/>
-      <c r="BK22" s="37"/>
-      <c r="BL22" s="37"/>
-      <c r="BM22" s="37"/>
-      <c r="BN22" s="37"/>
-      <c r="BO22" s="37"/>
-      <c r="BP22" s="37"/>
-      <c r="BQ22" s="37"/>
-      <c r="BR22" s="37"/>
-      <c r="BS22" s="37"/>
-      <c r="BT22" s="37"/>
-      <c r="BU22" s="37"/>
-      <c r="BV22" s="37"/>
-      <c r="BW22" s="37"/>
-      <c r="BX22" s="37"/>
-      <c r="BY22" s="37"/>
-      <c r="BZ22" s="37"/>
-      <c r="CA22" s="37"/>
-      <c r="CB22" s="37"/>
-      <c r="CC22" s="37"/>
-      <c r="CD22" s="37"/>
-      <c r="CE22" s="37"/>
-      <c r="CF22" s="37"/>
-      <c r="CG22" s="37"/>
-      <c r="CH22" s="37"/>
-      <c r="CI22" s="37"/>
+      <c r="AJ22" s="44"/>
+      <c r="AK22" s="44"/>
+      <c r="AL22" s="44"/>
+      <c r="AM22" s="44"/>
+      <c r="AN22" s="44"/>
+      <c r="AO22" s="44"/>
+      <c r="AP22" s="61"/>
+      <c r="AQ22" s="61"/>
+      <c r="AR22" s="61"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="44"/>
+      <c r="AU22" s="44"/>
+      <c r="AV22" s="44"/>
+      <c r="AW22" s="44"/>
+      <c r="AX22" s="44"/>
+      <c r="AY22" s="44"/>
+      <c r="AZ22" s="44"/>
+      <c r="BA22" s="44"/>
+      <c r="BB22" s="44"/>
+      <c r="BC22" s="44"/>
+      <c r="BD22" s="44"/>
+      <c r="BE22" s="44"/>
+      <c r="BF22" s="44"/>
+      <c r="BG22" s="44"/>
+      <c r="BH22" s="44"/>
+      <c r="BI22" s="44"/>
+      <c r="BJ22" s="44"/>
+      <c r="BK22" s="44"/>
+      <c r="BL22" s="44"/>
+      <c r="BM22" s="44"/>
+      <c r="BN22" s="44"/>
+      <c r="BO22" s="44"/>
+      <c r="BP22" s="44"/>
+      <c r="BQ22" s="44"/>
+      <c r="BR22" s="44"/>
+      <c r="BS22" s="44"/>
+      <c r="BT22" s="44"/>
+      <c r="BU22" s="44"/>
+      <c r="BV22" s="44"/>
+      <c r="BW22" s="44"/>
+      <c r="BX22" s="44"/>
+      <c r="BY22" s="44"/>
+      <c r="BZ22" s="44"/>
+      <c r="CA22" s="44"/>
+      <c r="CB22" s="44"/>
+      <c r="CC22" s="44"/>
+      <c r="CD22" s="44"/>
+      <c r="CE22" s="44"/>
+      <c r="CF22" s="44"/>
+      <c r="CG22" s="44"/>
+      <c r="CH22" s="44"/>
+      <c r="CI22" s="44"/>
       <c r="CJ22" s="37"/>
       <c r="CK22" s="37"/>
       <c r="CL22" s="37"/>
@@ -3750,10 +3811,10 @@
       <c r="EE22" s="37"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="55">
-        <v>45691.0</v>
-      </c>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="54">
+        <v>45661.0</v>
+      </c>
+      <c r="B23" s="64" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="37"/>
@@ -3781,67 +3842,67 @@
       <c r="Y23" s="37"/>
       <c r="Z23" s="37"/>
       <c r="AA23" s="37"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="30"/>
-      <c r="AM23" s="30"/>
-      <c r="AN23" s="30"/>
-      <c r="AO23" s="30"/>
-      <c r="AP23" s="37"/>
-      <c r="AQ23" s="37"/>
-      <c r="AR23" s="37"/>
-      <c r="AS23" s="37"/>
-      <c r="AT23" s="37"/>
-      <c r="AU23" s="37"/>
-      <c r="AV23" s="37"/>
-      <c r="AW23" s="37"/>
-      <c r="AX23" s="37"/>
-      <c r="AY23" s="37"/>
-      <c r="AZ23" s="37"/>
-      <c r="BA23" s="37"/>
-      <c r="BB23" s="37"/>
-      <c r="BC23" s="37"/>
-      <c r="BD23" s="37"/>
-      <c r="BE23" s="37"/>
-      <c r="BF23" s="37"/>
-      <c r="BG23" s="37"/>
-      <c r="BH23" s="37"/>
-      <c r="BI23" s="37"/>
-      <c r="BJ23" s="37"/>
-      <c r="BK23" s="37"/>
-      <c r="BL23" s="37"/>
-      <c r="BM23" s="37"/>
-      <c r="BN23" s="37"/>
-      <c r="BO23" s="37"/>
-      <c r="BP23" s="37"/>
-      <c r="BQ23" s="37"/>
-      <c r="BR23" s="37"/>
-      <c r="BS23" s="37"/>
-      <c r="BT23" s="37"/>
-      <c r="BU23" s="37"/>
-      <c r="BV23" s="37"/>
-      <c r="BW23" s="37"/>
-      <c r="BX23" s="37"/>
-      <c r="BY23" s="37"/>
-      <c r="BZ23" s="37"/>
-      <c r="CA23" s="37"/>
-      <c r="CB23" s="37"/>
-      <c r="CC23" s="37"/>
-      <c r="CD23" s="37"/>
-      <c r="CE23" s="37"/>
-      <c r="CF23" s="37"/>
-      <c r="CG23" s="37"/>
-      <c r="CH23" s="37"/>
-      <c r="CI23" s="37"/>
-      <c r="CJ23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="44"/>
+      <c r="AK23" s="44"/>
+      <c r="AL23" s="65"/>
+      <c r="AM23" s="65"/>
+      <c r="AN23" s="44"/>
+      <c r="AO23" s="44"/>
+      <c r="AP23" s="65"/>
+      <c r="AQ23" s="65"/>
+      <c r="AR23" s="65"/>
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="44"/>
+      <c r="AU23" s="44"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="57"/>
+      <c r="BB23" s="44"/>
+      <c r="BC23" s="44"/>
+      <c r="BD23" s="44"/>
+      <c r="BE23" s="44"/>
+      <c r="BF23" s="44"/>
+      <c r="BG23" s="44"/>
+      <c r="BH23" s="44"/>
+      <c r="BI23" s="44"/>
+      <c r="BJ23" s="44"/>
+      <c r="BK23" s="44"/>
+      <c r="BL23" s="44"/>
+      <c r="BM23" s="44"/>
+      <c r="BN23" s="44"/>
+      <c r="BO23" s="44"/>
+      <c r="BP23" s="44"/>
+      <c r="BQ23" s="44"/>
+      <c r="BR23" s="44"/>
+      <c r="BS23" s="44"/>
+      <c r="BT23" s="44"/>
+      <c r="BU23" s="44"/>
+      <c r="BV23" s="44"/>
+      <c r="BW23" s="44"/>
+      <c r="BX23" s="44"/>
+      <c r="BY23" s="44"/>
+      <c r="BZ23" s="44"/>
+      <c r="CA23" s="44"/>
+      <c r="CB23" s="44"/>
+      <c r="CC23" s="44"/>
+      <c r="CD23" s="44"/>
+      <c r="CE23" s="44"/>
+      <c r="CF23" s="44"/>
+      <c r="CG23" s="44"/>
+      <c r="CH23" s="44"/>
+      <c r="CI23" s="44"/>
+      <c r="CJ23" s="44"/>
       <c r="CK23" s="37"/>
       <c r="CL23" s="37"/>
       <c r="CM23" s="37"/>
@@ -3891,10 +3952,10 @@
       <c r="EE23" s="37"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="57">
-        <v>45719.0</v>
-      </c>
-      <c r="B24" s="58" t="s">
+      <c r="A24" s="54">
+        <v>45692.0</v>
+      </c>
+      <c r="B24" s="64" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="37"/>
@@ -3929,60 +3990,60 @@
       <c r="AF24" s="37"/>
       <c r="AG24" s="37"/>
       <c r="AH24" s="37"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="30"/>
-      <c r="AM24" s="30"/>
-      <c r="AN24" s="30"/>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="30"/>
-      <c r="AQ24" s="30"/>
-      <c r="AR24" s="30"/>
-      <c r="AS24" s="30"/>
-      <c r="AT24" s="30"/>
-      <c r="AU24" s="30"/>
-      <c r="AV24" s="30"/>
-      <c r="AW24" s="37"/>
-      <c r="AX24" s="37"/>
-      <c r="AY24" s="37"/>
-      <c r="AZ24" s="37"/>
-      <c r="BA24" s="37"/>
-      <c r="BB24" s="37"/>
-      <c r="BC24" s="37"/>
-      <c r="BD24" s="37"/>
-      <c r="BE24" s="37"/>
-      <c r="BF24" s="37"/>
-      <c r="BG24" s="37"/>
-      <c r="BH24" s="37"/>
-      <c r="BI24" s="37"/>
-      <c r="BJ24" s="37"/>
-      <c r="BK24" s="37"/>
-      <c r="BL24" s="37"/>
-      <c r="BM24" s="37"/>
-      <c r="BN24" s="37"/>
-      <c r="BO24" s="37"/>
-      <c r="BP24" s="37"/>
-      <c r="BQ24" s="37"/>
-      <c r="BR24" s="37"/>
-      <c r="BS24" s="37"/>
-      <c r="BT24" s="37"/>
-      <c r="BU24" s="37"/>
-      <c r="BV24" s="37"/>
-      <c r="BW24" s="37"/>
-      <c r="BX24" s="37"/>
-      <c r="BY24" s="37"/>
-      <c r="BZ24" s="37"/>
-      <c r="CA24" s="37"/>
-      <c r="CB24" s="37"/>
-      <c r="CC24" s="37"/>
-      <c r="CD24" s="37"/>
-      <c r="CE24" s="37"/>
-      <c r="CF24" s="37"/>
-      <c r="CG24" s="37"/>
-      <c r="CH24" s="37"/>
-      <c r="CI24" s="37"/>
-      <c r="CJ24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="44"/>
+      <c r="AK24" s="44"/>
+      <c r="AL24" s="44"/>
+      <c r="AM24" s="44"/>
+      <c r="AN24" s="44"/>
+      <c r="AO24" s="44"/>
+      <c r="AP24" s="57"/>
+      <c r="AQ24" s="66"/>
+      <c r="AR24" s="66"/>
+      <c r="AS24" s="44"/>
+      <c r="AT24" s="44"/>
+      <c r="AU24" s="44"/>
+      <c r="AV24" s="67"/>
+      <c r="AW24" s="67"/>
+      <c r="AX24" s="68"/>
+      <c r="AY24" s="44"/>
+      <c r="AZ24" s="44"/>
+      <c r="BA24" s="47"/>
+      <c r="BB24" s="44"/>
+      <c r="BC24" s="44"/>
+      <c r="BD24" s="44"/>
+      <c r="BE24" s="44"/>
+      <c r="BF24" s="44"/>
+      <c r="BG24" s="44"/>
+      <c r="BH24" s="44"/>
+      <c r="BI24" s="44"/>
+      <c r="BJ24" s="44"/>
+      <c r="BK24" s="44"/>
+      <c r="BL24" s="44"/>
+      <c r="BM24" s="44"/>
+      <c r="BN24" s="44"/>
+      <c r="BO24" s="44"/>
+      <c r="BP24" s="44"/>
+      <c r="BQ24" s="44"/>
+      <c r="BR24" s="44"/>
+      <c r="BS24" s="44"/>
+      <c r="BT24" s="44"/>
+      <c r="BU24" s="44"/>
+      <c r="BV24" s="44"/>
+      <c r="BW24" s="44"/>
+      <c r="BX24" s="44"/>
+      <c r="BY24" s="44"/>
+      <c r="BZ24" s="44"/>
+      <c r="CA24" s="44"/>
+      <c r="CB24" s="44"/>
+      <c r="CC24" s="44"/>
+      <c r="CD24" s="44"/>
+      <c r="CE24" s="44"/>
+      <c r="CF24" s="44"/>
+      <c r="CG24" s="44"/>
+      <c r="CH24" s="44"/>
+      <c r="CI24" s="44"/>
+      <c r="CJ24" s="44"/>
       <c r="CK24" s="37"/>
       <c r="CL24" s="37"/>
       <c r="CM24" s="37"/>
@@ -4032,10 +4093,10 @@
       <c r="EE24" s="37"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="57">
-        <v>45750.0</v>
-      </c>
-      <c r="B25" s="59" t="s">
+      <c r="A25" s="54">
+        <v>45720.0</v>
+      </c>
+      <c r="B25" s="64" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="37"/>
@@ -4071,59 +4132,59 @@
       <c r="AG25" s="37"/>
       <c r="AH25" s="37"/>
       <c r="AI25" s="37"/>
-      <c r="AJ25" s="37"/>
-      <c r="AK25" s="37"/>
-      <c r="AL25" s="37"/>
-      <c r="AM25" s="37"/>
-      <c r="AN25" s="37"/>
-      <c r="AO25" s="37"/>
-      <c r="AP25" s="30"/>
-      <c r="AQ25" s="30"/>
-      <c r="AR25" s="30"/>
-      <c r="AS25" s="30"/>
-      <c r="AT25" s="30"/>
-      <c r="AU25" s="30"/>
-      <c r="AV25" s="30"/>
-      <c r="AW25" s="30"/>
-      <c r="AX25" s="30"/>
-      <c r="AY25" s="30"/>
-      <c r="AZ25" s="30"/>
-      <c r="BA25" s="30"/>
-      <c r="BB25" s="30"/>
-      <c r="BC25" s="30"/>
-      <c r="BD25" s="37"/>
-      <c r="BE25" s="37"/>
-      <c r="BF25" s="37"/>
-      <c r="BG25" s="37"/>
-      <c r="BH25" s="37"/>
-      <c r="BI25" s="37"/>
-      <c r="BJ25" s="37"/>
-      <c r="BK25" s="37"/>
-      <c r="BL25" s="37"/>
-      <c r="BM25" s="37"/>
-      <c r="BN25" s="37"/>
-      <c r="BO25" s="37"/>
-      <c r="BP25" s="37"/>
-      <c r="BQ25" s="37"/>
-      <c r="BR25" s="37"/>
-      <c r="BS25" s="37"/>
-      <c r="BT25" s="37"/>
-      <c r="BU25" s="37"/>
-      <c r="BV25" s="37"/>
-      <c r="BW25" s="37"/>
-      <c r="BX25" s="37"/>
-      <c r="BY25" s="37"/>
-      <c r="BZ25" s="37"/>
-      <c r="CA25" s="37"/>
-      <c r="CB25" s="37"/>
-      <c r="CC25" s="37"/>
-      <c r="CD25" s="37"/>
-      <c r="CE25" s="37"/>
-      <c r="CF25" s="37"/>
-      <c r="CG25" s="37"/>
-      <c r="CH25" s="37"/>
-      <c r="CI25" s="37"/>
-      <c r="CJ25" s="37"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="44"/>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="69"/>
+      <c r="AQ25" s="69"/>
+      <c r="AR25" s="69"/>
+      <c r="AS25" s="44"/>
+      <c r="AT25" s="44"/>
+      <c r="AU25" s="44"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="65"/>
+      <c r="AX25" s="70"/>
+      <c r="AY25" s="65"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="47"/>
+      <c r="BB25" s="44"/>
+      <c r="BC25" s="44"/>
+      <c r="BD25" s="41"/>
+      <c r="BE25" s="41"/>
+      <c r="BF25" s="57"/>
+      <c r="BG25" s="57"/>
+      <c r="BH25" s="57"/>
+      <c r="BI25" s="57"/>
+      <c r="BJ25" s="57"/>
+      <c r="BK25" s="57"/>
+      <c r="BL25" s="57"/>
+      <c r="BM25" s="57"/>
+      <c r="BN25" s="57"/>
+      <c r="BO25" s="57"/>
+      <c r="BP25" s="44"/>
+      <c r="BQ25" s="44"/>
+      <c r="BR25" s="44"/>
+      <c r="BS25" s="44"/>
+      <c r="BT25" s="44"/>
+      <c r="BU25" s="44"/>
+      <c r="BV25" s="44"/>
+      <c r="BW25" s="44"/>
+      <c r="BX25" s="44"/>
+      <c r="BY25" s="44"/>
+      <c r="BZ25" s="44"/>
+      <c r="CA25" s="44"/>
+      <c r="CB25" s="44"/>
+      <c r="CC25" s="44"/>
+      <c r="CD25" s="44"/>
+      <c r="CE25" s="44"/>
+      <c r="CF25" s="44"/>
+      <c r="CG25" s="44"/>
+      <c r="CH25" s="44"/>
+      <c r="CI25" s="44"/>
+      <c r="CJ25" s="44"/>
       <c r="CK25" s="37"/>
       <c r="CL25" s="37"/>
       <c r="CM25" s="37"/>
@@ -4173,10 +4234,10 @@
       <c r="EE25" s="37"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="57">
-        <v>45780.0</v>
-      </c>
-      <c r="B26" s="35" t="s">
+      <c r="A26" s="54">
+        <v>45751.0</v>
+      </c>
+      <c r="B26" s="64" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="37"/>
@@ -4212,59 +4273,59 @@
       <c r="AG26" s="37"/>
       <c r="AH26" s="37"/>
       <c r="AI26" s="37"/>
-      <c r="AJ26" s="37"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="37"/>
-      <c r="AM26" s="37"/>
-      <c r="AN26" s="37"/>
-      <c r="AO26" s="37"/>
-      <c r="AP26" s="37"/>
-      <c r="AQ26" s="37"/>
-      <c r="AR26" s="37"/>
-      <c r="AS26" s="37"/>
-      <c r="AT26" s="37"/>
-      <c r="AU26" s="37"/>
-      <c r="AV26" s="37"/>
-      <c r="AW26" s="30"/>
-      <c r="AX26" s="30"/>
-      <c r="AY26" s="30"/>
-      <c r="AZ26" s="30"/>
-      <c r="BA26" s="30"/>
-      <c r="BB26" s="30"/>
-      <c r="BC26" s="30"/>
-      <c r="BD26" s="37"/>
-      <c r="BE26" s="37"/>
-      <c r="BF26" s="37"/>
-      <c r="BG26" s="37"/>
-      <c r="BH26" s="37"/>
-      <c r="BI26" s="37"/>
-      <c r="BJ26" s="37"/>
-      <c r="BK26" s="37"/>
-      <c r="BL26" s="37"/>
-      <c r="BM26" s="37"/>
-      <c r="BN26" s="37"/>
-      <c r="BO26" s="37"/>
-      <c r="BP26" s="37"/>
-      <c r="BQ26" s="37"/>
-      <c r="BR26" s="37"/>
-      <c r="BS26" s="37"/>
-      <c r="BT26" s="37"/>
-      <c r="BU26" s="37"/>
-      <c r="BV26" s="37"/>
-      <c r="BW26" s="37"/>
-      <c r="BX26" s="37"/>
-      <c r="BY26" s="37"/>
-      <c r="BZ26" s="37"/>
-      <c r="CA26" s="37"/>
-      <c r="CB26" s="37"/>
-      <c r="CC26" s="37"/>
-      <c r="CD26" s="37"/>
-      <c r="CE26" s="37"/>
-      <c r="CF26" s="37"/>
-      <c r="CG26" s="37"/>
-      <c r="CH26" s="37"/>
-      <c r="CI26" s="37"/>
-      <c r="CJ26" s="37"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="44"/>
+      <c r="AM26" s="44"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="44"/>
+      <c r="AQ26" s="44"/>
+      <c r="AR26" s="44"/>
+      <c r="AS26" s="44"/>
+      <c r="AT26" s="44"/>
+      <c r="AU26" s="44"/>
+      <c r="AV26" s="44"/>
+      <c r="AW26" s="57"/>
+      <c r="AX26" s="71"/>
+      <c r="AY26" s="72"/>
+      <c r="AZ26" s="72"/>
+      <c r="BA26" s="73"/>
+      <c r="BB26" s="44"/>
+      <c r="BC26" s="44"/>
+      <c r="BD26" s="65"/>
+      <c r="BE26" s="65"/>
+      <c r="BF26" s="61"/>
+      <c r="BG26" s="61"/>
+      <c r="BH26" s="61"/>
+      <c r="BI26" s="47"/>
+      <c r="BJ26" s="47"/>
+      <c r="BK26" s="47"/>
+      <c r="BL26" s="47"/>
+      <c r="BM26" s="47"/>
+      <c r="BN26" s="47"/>
+      <c r="BO26" s="47"/>
+      <c r="BP26" s="57"/>
+      <c r="BQ26" s="57"/>
+      <c r="BR26" s="57"/>
+      <c r="BS26" s="57"/>
+      <c r="BT26" s="57"/>
+      <c r="BU26" s="57"/>
+      <c r="BV26" s="57"/>
+      <c r="BW26" s="57"/>
+      <c r="BX26" s="57"/>
+      <c r="BY26" s="57"/>
+      <c r="BZ26" s="57"/>
+      <c r="CA26" s="57"/>
+      <c r="CB26" s="57"/>
+      <c r="CC26" s="57"/>
+      <c r="CD26" s="57"/>
+      <c r="CE26" s="57"/>
+      <c r="CF26" s="57"/>
+      <c r="CG26" s="57"/>
+      <c r="CH26" s="57"/>
+      <c r="CI26" s="57"/>
+      <c r="CJ26" s="44"/>
       <c r="CK26" s="37"/>
       <c r="CL26" s="37"/>
       <c r="CM26" s="37"/>
@@ -4314,11 +4375,11 @@
       <c r="EE26" s="37"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="54">
+        <v>45781.0</v>
+      </c>
+      <c r="B27" s="74" t="s">
         <v>50</v>
-      </c>
-      <c r="B27" s="61" t="s">
-        <v>51</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
@@ -4355,57 +4416,57 @@
       <c r="AI27" s="37"/>
       <c r="AJ27" s="37"/>
       <c r="AK27" s="37"/>
-      <c r="AL27" s="37"/>
-      <c r="AM27" s="37"/>
-      <c r="AN27" s="37"/>
-      <c r="AO27" s="37"/>
-      <c r="AP27" s="37"/>
-      <c r="AQ27" s="37"/>
-      <c r="AR27" s="37"/>
-      <c r="AS27" s="37"/>
-      <c r="AT27" s="37"/>
-      <c r="AU27" s="37"/>
-      <c r="AV27" s="37"/>
-      <c r="AW27" s="37"/>
-      <c r="AX27" s="37"/>
-      <c r="AY27" s="37"/>
-      <c r="AZ27" s="37"/>
-      <c r="BA27" s="37"/>
-      <c r="BB27" s="37"/>
-      <c r="BC27" s="37"/>
-      <c r="BD27" s="37"/>
-      <c r="BE27" s="37"/>
-      <c r="BF27" s="37"/>
-      <c r="BG27" s="37"/>
-      <c r="BH27" s="37"/>
-      <c r="BI27" s="37"/>
-      <c r="BJ27" s="37"/>
-      <c r="BK27" s="37"/>
-      <c r="BL27" s="37"/>
-      <c r="BM27" s="37"/>
-      <c r="BN27" s="37"/>
-      <c r="BO27" s="37"/>
-      <c r="BP27" s="37"/>
-      <c r="BQ27" s="37"/>
-      <c r="BR27" s="37"/>
-      <c r="BS27" s="37"/>
-      <c r="BT27" s="37"/>
-      <c r="BU27" s="37"/>
-      <c r="BV27" s="37"/>
-      <c r="BW27" s="37"/>
-      <c r="BX27" s="37"/>
-      <c r="BY27" s="37"/>
-      <c r="BZ27" s="37"/>
-      <c r="CA27" s="37"/>
-      <c r="CB27" s="37"/>
-      <c r="CC27" s="37"/>
-      <c r="CD27" s="37"/>
-      <c r="CE27" s="37"/>
-      <c r="CF27" s="37"/>
-      <c r="CG27" s="37"/>
-      <c r="CH27" s="37"/>
-      <c r="CI27" s="37"/>
-      <c r="CJ27" s="37"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="44"/>
+      <c r="AR27" s="44"/>
+      <c r="AS27" s="44"/>
+      <c r="AT27" s="44"/>
+      <c r="AU27" s="44"/>
+      <c r="AV27" s="44"/>
+      <c r="AW27" s="47"/>
+      <c r="AX27" s="47"/>
+      <c r="AY27" s="47"/>
+      <c r="AZ27" s="47"/>
+      <c r="BA27" s="47"/>
+      <c r="BB27" s="44"/>
+      <c r="BC27" s="44"/>
+      <c r="BD27" s="44"/>
+      <c r="BE27" s="65"/>
+      <c r="BF27" s="70"/>
+      <c r="BG27" s="65"/>
+      <c r="BH27" s="44"/>
+      <c r="BI27" s="47"/>
+      <c r="BJ27" s="47"/>
+      <c r="BK27" s="61"/>
+      <c r="BL27" s="61"/>
+      <c r="BM27" s="61"/>
+      <c r="BN27" s="61"/>
+      <c r="BO27" s="61"/>
+      <c r="BP27" s="47"/>
+      <c r="BQ27" s="47"/>
+      <c r="BR27" s="47"/>
+      <c r="BS27" s="47"/>
+      <c r="BT27" s="47"/>
+      <c r="BU27" s="47"/>
+      <c r="BV27" s="47"/>
+      <c r="BW27" s="47"/>
+      <c r="BX27" s="47"/>
+      <c r="BY27" s="47"/>
+      <c r="BZ27" s="47"/>
+      <c r="CA27" s="47"/>
+      <c r="CB27" s="47"/>
+      <c r="CC27" s="47"/>
+      <c r="CD27" s="47"/>
+      <c r="CE27" s="47"/>
+      <c r="CF27" s="47"/>
+      <c r="CG27" s="47"/>
+      <c r="CH27" s="47"/>
+      <c r="CI27" s="47"/>
+      <c r="CJ27" s="57"/>
       <c r="CK27" s="37"/>
       <c r="CL27" s="37"/>
       <c r="CM27" s="37"/>
@@ -4455,11 +4516,11 @@
       <c r="EE27" s="37"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="57">
-        <v>45661.0</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>52</v>
+      <c r="A28" s="54">
+        <v>45812.0</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>51</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
@@ -4496,57 +4557,57 @@
       <c r="AI28" s="37"/>
       <c r="AJ28" s="37"/>
       <c r="AK28" s="37"/>
-      <c r="AL28" s="37"/>
-      <c r="AM28" s="37"/>
-      <c r="AN28" s="37"/>
-      <c r="AO28" s="37"/>
-      <c r="AP28" s="37"/>
-      <c r="AQ28" s="37"/>
-      <c r="AR28" s="37"/>
-      <c r="AS28" s="37"/>
-      <c r="AT28" s="37"/>
-      <c r="AU28" s="37"/>
-      <c r="AV28" s="37"/>
-      <c r="AW28" s="37"/>
-      <c r="AX28" s="37"/>
-      <c r="AY28" s="37"/>
-      <c r="AZ28" s="37"/>
-      <c r="BA28" s="37"/>
-      <c r="BB28" s="37"/>
-      <c r="BC28" s="37"/>
-      <c r="BD28" s="30"/>
-      <c r="BE28" s="30"/>
-      <c r="BF28" s="62"/>
-      <c r="BG28" s="62"/>
-      <c r="BH28" s="62"/>
-      <c r="BI28" s="62"/>
-      <c r="BJ28" s="62"/>
-      <c r="BK28" s="37"/>
-      <c r="BL28" s="37"/>
-      <c r="BM28" s="37"/>
-      <c r="BN28" s="37"/>
-      <c r="BO28" s="37"/>
-      <c r="BP28" s="37"/>
-      <c r="BQ28" s="37"/>
-      <c r="BR28" s="37"/>
-      <c r="BS28" s="37"/>
-      <c r="BT28" s="37"/>
-      <c r="BU28" s="37"/>
-      <c r="BV28" s="37"/>
-      <c r="BW28" s="37"/>
-      <c r="BX28" s="37"/>
-      <c r="BY28" s="37"/>
-      <c r="BZ28" s="37"/>
-      <c r="CA28" s="37"/>
-      <c r="CB28" s="37"/>
-      <c r="CC28" s="37"/>
-      <c r="CD28" s="37"/>
-      <c r="CE28" s="37"/>
-      <c r="CF28" s="37"/>
-      <c r="CG28" s="37"/>
-      <c r="CH28" s="37"/>
-      <c r="CI28" s="37"/>
-      <c r="CJ28" s="37"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="44"/>
+      <c r="AQ28" s="44"/>
+      <c r="AR28" s="44"/>
+      <c r="AS28" s="44"/>
+      <c r="AT28" s="44"/>
+      <c r="AU28" s="44"/>
+      <c r="AV28" s="44"/>
+      <c r="AW28" s="61"/>
+      <c r="AX28" s="61"/>
+      <c r="AY28" s="61"/>
+      <c r="AZ28" s="61"/>
+      <c r="BA28" s="61"/>
+      <c r="BB28" s="44"/>
+      <c r="BC28" s="57"/>
+      <c r="BD28" s="57"/>
+      <c r="BE28" s="57"/>
+      <c r="BF28" s="71"/>
+      <c r="BG28" s="72"/>
+      <c r="BH28" s="71"/>
+      <c r="BI28" s="47"/>
+      <c r="BJ28" s="47"/>
+      <c r="BK28" s="44"/>
+      <c r="BL28" s="44"/>
+      <c r="BM28" s="44"/>
+      <c r="BN28" s="44"/>
+      <c r="BO28" s="44"/>
+      <c r="BP28" s="47"/>
+      <c r="BQ28" s="47"/>
+      <c r="BR28" s="47"/>
+      <c r="BS28" s="47"/>
+      <c r="BT28" s="47"/>
+      <c r="BU28" s="47"/>
+      <c r="BV28" s="47"/>
+      <c r="BW28" s="47"/>
+      <c r="BX28" s="47"/>
+      <c r="BY28" s="47"/>
+      <c r="BZ28" s="47"/>
+      <c r="CA28" s="47"/>
+      <c r="CB28" s="47"/>
+      <c r="CC28" s="47"/>
+      <c r="CD28" s="47"/>
+      <c r="CE28" s="47"/>
+      <c r="CF28" s="47"/>
+      <c r="CG28" s="47"/>
+      <c r="CH28" s="47"/>
+      <c r="CI28" s="47"/>
+      <c r="CJ28" s="47"/>
       <c r="CK28" s="37"/>
       <c r="CL28" s="37"/>
       <c r="CM28" s="37"/>
@@ -4596,11 +4657,11 @@
       <c r="EE28" s="37"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="57">
-        <v>45692.0</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>53</v>
+      <c r="A29" s="54">
+        <v>45842.0</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>52</v>
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -4637,57 +4698,57 @@
       <c r="AI29" s="37"/>
       <c r="AJ29" s="37"/>
       <c r="AK29" s="37"/>
-      <c r="AL29" s="37"/>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="37"/>
-      <c r="AO29" s="37"/>
-      <c r="AP29" s="37"/>
-      <c r="AQ29" s="37"/>
-      <c r="AR29" s="37"/>
-      <c r="AS29" s="37"/>
-      <c r="AT29" s="37"/>
-      <c r="AU29" s="37"/>
-      <c r="AV29" s="37"/>
-      <c r="AW29" s="37"/>
-      <c r="AX29" s="37"/>
-      <c r="AY29" s="37"/>
-      <c r="AZ29" s="37"/>
-      <c r="BA29" s="37"/>
-      <c r="BB29" s="37"/>
-      <c r="BC29" s="37"/>
-      <c r="BD29" s="30"/>
-      <c r="BE29" s="30"/>
-      <c r="BF29" s="62"/>
-      <c r="BG29" s="62"/>
-      <c r="BH29" s="62"/>
-      <c r="BI29" s="62"/>
-      <c r="BJ29" s="62"/>
-      <c r="BK29" s="37"/>
-      <c r="BL29" s="37"/>
-      <c r="BM29" s="37"/>
-      <c r="BN29" s="37"/>
-      <c r="BO29" s="37"/>
-      <c r="BP29" s="37"/>
-      <c r="BQ29" s="37"/>
-      <c r="BR29" s="37"/>
-      <c r="BS29" s="37"/>
-      <c r="BT29" s="37"/>
-      <c r="BU29" s="37"/>
-      <c r="BV29" s="37"/>
-      <c r="BW29" s="37"/>
-      <c r="BX29" s="37"/>
-      <c r="BY29" s="37"/>
-      <c r="BZ29" s="37"/>
-      <c r="CA29" s="37"/>
-      <c r="CB29" s="37"/>
-      <c r="CC29" s="37"/>
-      <c r="CD29" s="37"/>
-      <c r="CE29" s="37"/>
-      <c r="CF29" s="37"/>
-      <c r="CG29" s="37"/>
-      <c r="CH29" s="37"/>
-      <c r="CI29" s="37"/>
-      <c r="CJ29" s="37"/>
+      <c r="AL29" s="44"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="44"/>
+      <c r="AO29" s="44"/>
+      <c r="AP29" s="44"/>
+      <c r="AQ29" s="44"/>
+      <c r="AR29" s="44"/>
+      <c r="AS29" s="44"/>
+      <c r="AT29" s="44"/>
+      <c r="AU29" s="44"/>
+      <c r="AV29" s="44"/>
+      <c r="AW29" s="44"/>
+      <c r="AX29" s="44"/>
+      <c r="AY29" s="44"/>
+      <c r="AZ29" s="44"/>
+      <c r="BA29" s="44"/>
+      <c r="BB29" s="44"/>
+      <c r="BC29" s="47"/>
+      <c r="BD29" s="47"/>
+      <c r="BE29" s="47"/>
+      <c r="BF29" s="47"/>
+      <c r="BG29" s="47"/>
+      <c r="BH29" s="47"/>
+      <c r="BI29" s="61"/>
+      <c r="BJ29" s="61"/>
+      <c r="BK29" s="65"/>
+      <c r="BL29" s="70"/>
+      <c r="BM29" s="70"/>
+      <c r="BN29" s="65"/>
+      <c r="BO29" s="44"/>
+      <c r="BP29" s="47"/>
+      <c r="BQ29" s="47"/>
+      <c r="BR29" s="47"/>
+      <c r="BS29" s="47"/>
+      <c r="BT29" s="47"/>
+      <c r="BU29" s="47"/>
+      <c r="BV29" s="47"/>
+      <c r="BW29" s="47"/>
+      <c r="BX29" s="47"/>
+      <c r="BY29" s="47"/>
+      <c r="BZ29" s="47"/>
+      <c r="CA29" s="47"/>
+      <c r="CB29" s="47"/>
+      <c r="CC29" s="47"/>
+      <c r="CD29" s="47"/>
+      <c r="CE29" s="47"/>
+      <c r="CF29" s="47"/>
+      <c r="CG29" s="47"/>
+      <c r="CH29" s="47"/>
+      <c r="CI29" s="47"/>
+      <c r="CJ29" s="47"/>
       <c r="CK29" s="37"/>
       <c r="CL29" s="37"/>
       <c r="CM29" s="37"/>
@@ -4737,11 +4798,11 @@
       <c r="EE29" s="37"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="57">
-        <v>45720.0</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>54</v>
+      <c r="A30" s="54">
+        <v>45873.0</v>
+      </c>
+      <c r="B30" s="75" t="s">
+        <v>53</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
@@ -4778,57 +4839,57 @@
       <c r="AI30" s="37"/>
       <c r="AJ30" s="37"/>
       <c r="AK30" s="37"/>
-      <c r="AL30" s="37"/>
-      <c r="AM30" s="37"/>
-      <c r="AN30" s="37"/>
-      <c r="AO30" s="37"/>
-      <c r="AP30" s="37"/>
-      <c r="AQ30" s="37"/>
-      <c r="AR30" s="37"/>
-      <c r="AS30" s="37"/>
-      <c r="AT30" s="37"/>
-      <c r="AU30" s="37"/>
-      <c r="AV30" s="37"/>
-      <c r="AW30" s="37"/>
-      <c r="AX30" s="37"/>
-      <c r="AY30" s="37"/>
-      <c r="AZ30" s="37"/>
-      <c r="BA30" s="37"/>
-      <c r="BB30" s="37"/>
-      <c r="BC30" s="37"/>
-      <c r="BD30" s="30"/>
-      <c r="BE30" s="30"/>
-      <c r="BF30" s="62"/>
-      <c r="BG30" s="62"/>
-      <c r="BH30" s="62"/>
-      <c r="BI30" s="62"/>
-      <c r="BJ30" s="62"/>
-      <c r="BK30" s="37"/>
-      <c r="BL30" s="37"/>
-      <c r="BM30" s="37"/>
-      <c r="BN30" s="37"/>
-      <c r="BO30" s="37"/>
-      <c r="BP30" s="37"/>
-      <c r="BQ30" s="37"/>
-      <c r="BR30" s="37"/>
-      <c r="BS30" s="37"/>
-      <c r="BT30" s="37"/>
-      <c r="BU30" s="37"/>
-      <c r="BV30" s="37"/>
-      <c r="BW30" s="37"/>
-      <c r="BX30" s="37"/>
-      <c r="BY30" s="37"/>
-      <c r="BZ30" s="37"/>
-      <c r="CA30" s="37"/>
-      <c r="CB30" s="37"/>
-      <c r="CC30" s="37"/>
-      <c r="CD30" s="37"/>
-      <c r="CE30" s="37"/>
-      <c r="CF30" s="37"/>
-      <c r="CG30" s="37"/>
-      <c r="CH30" s="37"/>
-      <c r="CI30" s="37"/>
-      <c r="CJ30" s="37"/>
+      <c r="AL30" s="44"/>
+      <c r="AM30" s="44"/>
+      <c r="AN30" s="44"/>
+      <c r="AO30" s="44"/>
+      <c r="AP30" s="44"/>
+      <c r="AQ30" s="44"/>
+      <c r="AR30" s="44"/>
+      <c r="AS30" s="44"/>
+      <c r="AT30" s="44"/>
+      <c r="AU30" s="44"/>
+      <c r="AV30" s="44"/>
+      <c r="AW30" s="44"/>
+      <c r="AX30" s="44"/>
+      <c r="AY30" s="44"/>
+      <c r="AZ30" s="44"/>
+      <c r="BA30" s="44"/>
+      <c r="BB30" s="44"/>
+      <c r="BC30" s="47"/>
+      <c r="BD30" s="47"/>
+      <c r="BE30" s="47"/>
+      <c r="BF30" s="47"/>
+      <c r="BG30" s="47"/>
+      <c r="BH30" s="47"/>
+      <c r="BI30" s="44"/>
+      <c r="BJ30" s="44"/>
+      <c r="BK30" s="57"/>
+      <c r="BL30" s="57"/>
+      <c r="BM30" s="71"/>
+      <c r="BN30" s="72"/>
+      <c r="BO30" s="71"/>
+      <c r="BP30" s="61"/>
+      <c r="BQ30" s="61"/>
+      <c r="BR30" s="61"/>
+      <c r="BS30" s="61"/>
+      <c r="BT30" s="61"/>
+      <c r="BU30" s="61"/>
+      <c r="BV30" s="61"/>
+      <c r="BW30" s="61"/>
+      <c r="BX30" s="61"/>
+      <c r="BY30" s="61"/>
+      <c r="BZ30" s="61"/>
+      <c r="CA30" s="61"/>
+      <c r="CB30" s="61"/>
+      <c r="CC30" s="61"/>
+      <c r="CD30" s="61"/>
+      <c r="CE30" s="61"/>
+      <c r="CF30" s="61"/>
+      <c r="CG30" s="61"/>
+      <c r="CH30" s="61"/>
+      <c r="CI30" s="61"/>
+      <c r="CJ30" s="47"/>
       <c r="CK30" s="37"/>
       <c r="CL30" s="37"/>
       <c r="CM30" s="37"/>
@@ -4878,11 +4939,11 @@
       <c r="EE30" s="37"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="57">
-        <v>45751.0</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>55</v>
+      <c r="A31" s="54">
+        <v>45904.0</v>
+      </c>
+      <c r="B31" s="75" t="s">
+        <v>54</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -4916,60 +4977,60 @@
       <c r="AF31" s="37"/>
       <c r="AG31" s="37"/>
       <c r="AH31" s="37"/>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="37"/>
-      <c r="AM31" s="37"/>
-      <c r="AN31" s="37"/>
-      <c r="AO31" s="37"/>
-      <c r="AP31" s="37"/>
-      <c r="AQ31" s="37"/>
-      <c r="AR31" s="37"/>
-      <c r="AS31" s="37"/>
-      <c r="AT31" s="37"/>
-      <c r="AU31" s="37"/>
-      <c r="AV31" s="37"/>
-      <c r="AW31" s="37"/>
-      <c r="AX31" s="37"/>
-      <c r="AY31" s="37"/>
-      <c r="AZ31" s="37"/>
-      <c r="BA31" s="37"/>
-      <c r="BB31" s="37"/>
-      <c r="BC31" s="37"/>
-      <c r="BD31" s="30"/>
-      <c r="BE31" s="30"/>
-      <c r="BF31" s="62"/>
-      <c r="BG31" s="62"/>
-      <c r="BH31" s="62"/>
-      <c r="BI31" s="62"/>
-      <c r="BJ31" s="62"/>
-      <c r="BK31" s="37"/>
-      <c r="BL31" s="37"/>
-      <c r="BM31" s="37"/>
-      <c r="BN31" s="37"/>
-      <c r="BO31" s="37"/>
-      <c r="BP31" s="37"/>
-      <c r="BQ31" s="37"/>
-      <c r="BR31" s="37"/>
-      <c r="BS31" s="37"/>
-      <c r="BT31" s="37"/>
-      <c r="BU31" s="37"/>
-      <c r="BV31" s="37"/>
-      <c r="BW31" s="37"/>
-      <c r="BX31" s="37"/>
-      <c r="BY31" s="37"/>
-      <c r="BZ31" s="37"/>
-      <c r="CA31" s="37"/>
-      <c r="CB31" s="37"/>
-      <c r="CC31" s="37"/>
-      <c r="CD31" s="37"/>
-      <c r="CE31" s="37"/>
-      <c r="CF31" s="37"/>
-      <c r="CG31" s="37"/>
-      <c r="CH31" s="37"/>
-      <c r="CI31" s="37"/>
-      <c r="CJ31" s="37"/>
+      <c r="AI31" s="47"/>
+      <c r="AJ31" s="47"/>
+      <c r="AK31" s="47"/>
+      <c r="AL31" s="47"/>
+      <c r="AM31" s="47"/>
+      <c r="AN31" s="47"/>
+      <c r="AO31" s="47"/>
+      <c r="AP31" s="47"/>
+      <c r="AQ31" s="47"/>
+      <c r="AR31" s="47"/>
+      <c r="AS31" s="47"/>
+      <c r="AT31" s="47"/>
+      <c r="AU31" s="47"/>
+      <c r="AV31" s="47"/>
+      <c r="AW31" s="47"/>
+      <c r="AX31" s="47"/>
+      <c r="AY31" s="47"/>
+      <c r="AZ31" s="47"/>
+      <c r="BA31" s="47"/>
+      <c r="BB31" s="47"/>
+      <c r="BC31" s="47"/>
+      <c r="BD31" s="47"/>
+      <c r="BE31" s="47"/>
+      <c r="BF31" s="47"/>
+      <c r="BG31" s="47"/>
+      <c r="BH31" s="47"/>
+      <c r="BI31" s="47"/>
+      <c r="BJ31" s="47"/>
+      <c r="BK31" s="47"/>
+      <c r="BL31" s="47"/>
+      <c r="BM31" s="47"/>
+      <c r="BN31" s="47"/>
+      <c r="BO31" s="47"/>
+      <c r="BP31" s="44"/>
+      <c r="BQ31" s="44"/>
+      <c r="BR31" s="65"/>
+      <c r="BS31" s="70"/>
+      <c r="BT31" s="70"/>
+      <c r="BU31" s="65"/>
+      <c r="BV31" s="44"/>
+      <c r="BW31" s="44"/>
+      <c r="BX31" s="44"/>
+      <c r="BY31" s="44"/>
+      <c r="BZ31" s="44"/>
+      <c r="CA31" s="44"/>
+      <c r="CB31" s="44"/>
+      <c r="CC31" s="44"/>
+      <c r="CD31" s="44"/>
+      <c r="CE31" s="44"/>
+      <c r="CF31" s="44"/>
+      <c r="CG31" s="44"/>
+      <c r="CH31" s="44"/>
+      <c r="CI31" s="44"/>
+      <c r="CJ31" s="61"/>
       <c r="CK31" s="37"/>
       <c r="CL31" s="37"/>
       <c r="CM31" s="37"/>
@@ -5019,19 +5080,19 @@
       <c r="EE31" s="37"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="57">
-        <v>45781.0</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>56</v>
+      <c r="A32" s="54">
+        <v>45934.0</v>
+      </c>
+      <c r="B32" s="75" t="s">
+        <v>55</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
@@ -5060,74 +5121,74 @@
       <c r="AI32" s="37"/>
       <c r="AJ32" s="37"/>
       <c r="AK32" s="37"/>
-      <c r="AL32" s="37"/>
-      <c r="AM32" s="37"/>
-      <c r="AN32" s="37"/>
-      <c r="AO32" s="37"/>
-      <c r="AP32" s="37"/>
-      <c r="AQ32" s="37"/>
-      <c r="AR32" s="37"/>
-      <c r="AS32" s="37"/>
-      <c r="AT32" s="37"/>
-      <c r="AU32" s="37"/>
-      <c r="AV32" s="37"/>
-      <c r="AW32" s="37"/>
-      <c r="AX32" s="37"/>
-      <c r="AY32" s="37"/>
-      <c r="AZ32" s="37"/>
-      <c r="BA32" s="37"/>
-      <c r="BB32" s="37"/>
-      <c r="BC32" s="37"/>
-      <c r="BD32" s="30"/>
-      <c r="BE32" s="30"/>
-      <c r="BF32" s="62"/>
-      <c r="BG32" s="62"/>
-      <c r="BH32" s="62"/>
-      <c r="BI32" s="62"/>
-      <c r="BJ32" s="62"/>
-      <c r="BK32" s="37"/>
-      <c r="BL32" s="37"/>
-      <c r="BM32" s="37"/>
-      <c r="BN32" s="37"/>
-      <c r="BO32" s="37"/>
-      <c r="BP32" s="37"/>
-      <c r="BQ32" s="37"/>
-      <c r="BR32" s="37"/>
-      <c r="BS32" s="37"/>
-      <c r="BT32" s="37"/>
-      <c r="BU32" s="37"/>
-      <c r="BV32" s="37"/>
-      <c r="BW32" s="37"/>
-      <c r="BX32" s="37"/>
-      <c r="BY32" s="37"/>
-      <c r="BZ32" s="37"/>
-      <c r="CA32" s="37"/>
-      <c r="CB32" s="37"/>
-      <c r="CC32" s="37"/>
-      <c r="CD32" s="37"/>
-      <c r="CE32" s="37"/>
-      <c r="CF32" s="37"/>
-      <c r="CG32" s="37"/>
-      <c r="CH32" s="37"/>
-      <c r="CI32" s="37"/>
-      <c r="CJ32" s="37"/>
-      <c r="CK32" s="37"/>
-      <c r="CL32" s="37"/>
-      <c r="CM32" s="37"/>
-      <c r="CN32" s="37"/>
-      <c r="CO32" s="37"/>
-      <c r="CP32" s="37"/>
-      <c r="CQ32" s="37"/>
-      <c r="CR32" s="37"/>
-      <c r="CS32" s="37"/>
-      <c r="CT32" s="37"/>
-      <c r="CU32" s="37"/>
-      <c r="CV32" s="37"/>
-      <c r="CW32" s="37"/>
-      <c r="CX32" s="37"/>
-      <c r="CY32" s="37"/>
-      <c r="CZ32" s="37"/>
-      <c r="DA32" s="37"/>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="44"/>
+      <c r="AP32" s="44"/>
+      <c r="AQ32" s="44"/>
+      <c r="AR32" s="44"/>
+      <c r="AS32" s="44"/>
+      <c r="AT32" s="44"/>
+      <c r="AU32" s="44"/>
+      <c r="AV32" s="44"/>
+      <c r="AW32" s="44"/>
+      <c r="AX32" s="44"/>
+      <c r="AY32" s="44"/>
+      <c r="AZ32" s="44"/>
+      <c r="BA32" s="44"/>
+      <c r="BB32" s="44"/>
+      <c r="BC32" s="61"/>
+      <c r="BD32" s="61"/>
+      <c r="BE32" s="61"/>
+      <c r="BF32" s="61"/>
+      <c r="BG32" s="61"/>
+      <c r="BH32" s="61"/>
+      <c r="BI32" s="44"/>
+      <c r="BJ32" s="44"/>
+      <c r="BK32" s="47"/>
+      <c r="BL32" s="47"/>
+      <c r="BM32" s="47"/>
+      <c r="BN32" s="47"/>
+      <c r="BO32" s="47"/>
+      <c r="BP32" s="44"/>
+      <c r="BQ32" s="44"/>
+      <c r="BR32" s="44"/>
+      <c r="BS32" s="65"/>
+      <c r="BT32" s="70"/>
+      <c r="BU32" s="70"/>
+      <c r="BV32" s="65"/>
+      <c r="BW32" s="44"/>
+      <c r="BX32" s="44"/>
+      <c r="BY32" s="65"/>
+      <c r="BZ32" s="44"/>
+      <c r="CA32" s="65"/>
+      <c r="CB32" s="44"/>
+      <c r="CC32" s="44"/>
+      <c r="CD32" s="44"/>
+      <c r="CE32" s="44"/>
+      <c r="CF32" s="44"/>
+      <c r="CG32" s="44"/>
+      <c r="CH32" s="44"/>
+      <c r="CI32" s="44"/>
+      <c r="CJ32" s="44"/>
+      <c r="CK32" s="44"/>
+      <c r="CL32" s="44"/>
+      <c r="CM32" s="44"/>
+      <c r="CN32" s="44"/>
+      <c r="CO32" s="44"/>
+      <c r="CP32" s="44"/>
+      <c r="CQ32" s="44"/>
+      <c r="CR32" s="44"/>
+      <c r="CS32" s="44"/>
+      <c r="CT32" s="44"/>
+      <c r="CU32" s="44"/>
+      <c r="CV32" s="44"/>
+      <c r="CW32" s="44"/>
+      <c r="CX32" s="44"/>
+      <c r="CY32" s="44"/>
+      <c r="CZ32" s="44"/>
+      <c r="DA32" s="44"/>
       <c r="DB32" s="37"/>
       <c r="DC32" s="37"/>
       <c r="DD32" s="37"/>
@@ -5160,11 +5221,11 @@
       <c r="EE32" s="37"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="57">
-        <v>45812.0</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>57</v>
+      <c r="A33" s="54">
+        <v>45965.0</v>
+      </c>
+      <c r="B33" s="75" t="s">
+        <v>56</v>
       </c>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
@@ -5201,74 +5262,76 @@
       <c r="AI33" s="37"/>
       <c r="AJ33" s="37"/>
       <c r="AK33" s="37"/>
-      <c r="AL33" s="37"/>
-      <c r="AM33" s="37"/>
-      <c r="AN33" s="37"/>
-      <c r="AO33" s="37"/>
-      <c r="AP33" s="37"/>
-      <c r="AQ33" s="37"/>
-      <c r="AR33" s="37"/>
-      <c r="AS33" s="37"/>
-      <c r="AT33" s="37"/>
-      <c r="AU33" s="37"/>
-      <c r="AV33" s="37"/>
-      <c r="AW33" s="37"/>
-      <c r="AX33" s="37"/>
-      <c r="AY33" s="37"/>
-      <c r="AZ33" s="37"/>
-      <c r="BA33" s="37"/>
-      <c r="BB33" s="37"/>
-      <c r="BC33" s="37"/>
-      <c r="BD33" s="30"/>
-      <c r="BE33" s="30"/>
-      <c r="BF33" s="62"/>
-      <c r="BG33" s="62"/>
-      <c r="BH33" s="62"/>
-      <c r="BI33" s="62"/>
-      <c r="BJ33" s="62"/>
-      <c r="BK33" s="62"/>
-      <c r="BL33" s="62"/>
-      <c r="BM33" s="62"/>
-      <c r="BN33" s="62"/>
-      <c r="BO33" s="62"/>
-      <c r="BP33" s="62"/>
-      <c r="BQ33" s="62"/>
-      <c r="BR33" s="37"/>
-      <c r="BS33" s="37"/>
-      <c r="BT33" s="37"/>
-      <c r="BU33" s="37"/>
-      <c r="BV33" s="37"/>
-      <c r="BW33" s="37"/>
-      <c r="BX33" s="37"/>
-      <c r="BY33" s="37"/>
-      <c r="BZ33" s="37"/>
-      <c r="CA33" s="37"/>
-      <c r="CB33" s="37"/>
-      <c r="CC33" s="37"/>
-      <c r="CD33" s="37"/>
-      <c r="CE33" s="37"/>
-      <c r="CF33" s="37"/>
-      <c r="CG33" s="37"/>
-      <c r="CH33" s="37"/>
-      <c r="CI33" s="37"/>
-      <c r="CJ33" s="37"/>
-      <c r="CK33" s="37"/>
-      <c r="CL33" s="37"/>
-      <c r="CM33" s="37"/>
-      <c r="CN33" s="37"/>
-      <c r="CO33" s="37"/>
-      <c r="CP33" s="37"/>
-      <c r="CQ33" s="37"/>
-      <c r="CR33" s="37"/>
-      <c r="CS33" s="37"/>
-      <c r="CT33" s="37"/>
-      <c r="CU33" s="37"/>
-      <c r="CV33" s="37"/>
-      <c r="CW33" s="37"/>
-      <c r="CX33" s="37"/>
-      <c r="CY33" s="37"/>
-      <c r="CZ33" s="37"/>
-      <c r="DA33" s="37"/>
+      <c r="AL33" s="44"/>
+      <c r="AM33" s="44"/>
+      <c r="AN33" s="44"/>
+      <c r="AO33" s="44"/>
+      <c r="AP33" s="44"/>
+      <c r="AQ33" s="44"/>
+      <c r="AR33" s="44"/>
+      <c r="AS33" s="44"/>
+      <c r="AT33" s="44"/>
+      <c r="AU33" s="44"/>
+      <c r="AV33" s="44"/>
+      <c r="AW33" s="44"/>
+      <c r="AX33" s="44"/>
+      <c r="AY33" s="44"/>
+      <c r="AZ33" s="44"/>
+      <c r="BA33" s="44"/>
+      <c r="BB33" s="44"/>
+      <c r="BC33" s="44"/>
+      <c r="BD33" s="44"/>
+      <c r="BE33" s="44"/>
+      <c r="BF33" s="44"/>
+      <c r="BG33" s="44"/>
+      <c r="BH33" s="44"/>
+      <c r="BI33" s="44"/>
+      <c r="BJ33" s="44"/>
+      <c r="BK33" s="47"/>
+      <c r="BL33" s="47"/>
+      <c r="BM33" s="47"/>
+      <c r="BN33" s="47"/>
+      <c r="BO33" s="47"/>
+      <c r="BP33" s="44"/>
+      <c r="BQ33" s="44"/>
+      <c r="BR33" s="44"/>
+      <c r="BS33" s="44"/>
+      <c r="BT33" s="44"/>
+      <c r="BU33" s="44"/>
+      <c r="BV33" s="44"/>
+      <c r="BW33" s="44"/>
+      <c r="BX33" s="44"/>
+      <c r="BY33" s="44"/>
+      <c r="BZ33" s="65"/>
+      <c r="CA33" s="44"/>
+      <c r="CB33" s="65"/>
+      <c r="CC33" s="44"/>
+      <c r="CD33" s="44"/>
+      <c r="CE33" s="44"/>
+      <c r="CF33" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG33" s="44"/>
+      <c r="CH33" s="65"/>
+      <c r="CI33" s="44"/>
+      <c r="CJ33" s="57"/>
+      <c r="CK33" s="57"/>
+      <c r="CL33" s="65"/>
+      <c r="CM33" s="44"/>
+      <c r="CN33" s="65"/>
+      <c r="CO33" s="57"/>
+      <c r="CP33" s="44"/>
+      <c r="CQ33" s="44"/>
+      <c r="CR33" s="44"/>
+      <c r="CS33" s="44"/>
+      <c r="CT33" s="44"/>
+      <c r="CU33" s="44"/>
+      <c r="CV33" s="44"/>
+      <c r="CW33" s="44"/>
+      <c r="CX33" s="44"/>
+      <c r="CY33" s="44"/>
+      <c r="CZ33" s="44"/>
+      <c r="DA33" s="44"/>
       <c r="DB33" s="37"/>
       <c r="DC33" s="37"/>
       <c r="DD33" s="37"/>
@@ -5301,10 +5364,10 @@
       <c r="EE33" s="37"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="57">
-        <v>45842.0</v>
-      </c>
-      <c r="B34" s="59" t="s">
+      <c r="A34" s="54">
+        <v>45995.0</v>
+      </c>
+      <c r="B34" s="77" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="37"/>
@@ -5312,8 +5375,8 @@
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
@@ -5339,83 +5402,83 @@
       <c r="AF34" s="37"/>
       <c r="AG34" s="37"/>
       <c r="AH34" s="37"/>
-      <c r="AI34" s="37"/>
-      <c r="AJ34" s="37"/>
-      <c r="AK34" s="37"/>
-      <c r="AL34" s="37"/>
-      <c r="AM34" s="37"/>
-      <c r="AN34" s="37"/>
-      <c r="AO34" s="37"/>
-      <c r="AP34" s="37"/>
-      <c r="AQ34" s="37"/>
-      <c r="AR34" s="37"/>
-      <c r="AS34" s="37"/>
-      <c r="AT34" s="37"/>
-      <c r="AU34" s="37"/>
-      <c r="AV34" s="37"/>
-      <c r="AW34" s="37"/>
-      <c r="AX34" s="37"/>
-      <c r="AY34" s="37"/>
-      <c r="AZ34" s="37"/>
-      <c r="BA34" s="37"/>
-      <c r="BB34" s="37"/>
-      <c r="BC34" s="37"/>
-      <c r="BD34" s="37"/>
-      <c r="BE34" s="37"/>
-      <c r="BF34" s="37"/>
-      <c r="BG34" s="37"/>
-      <c r="BH34" s="37"/>
-      <c r="BI34" s="37"/>
-      <c r="BJ34" s="37"/>
-      <c r="BK34" s="62"/>
-      <c r="BL34" s="62"/>
-      <c r="BM34" s="62"/>
-      <c r="BN34" s="62"/>
-      <c r="BO34" s="62"/>
-      <c r="BP34" s="62"/>
-      <c r="BQ34" s="62"/>
-      <c r="BR34" s="62"/>
-      <c r="BS34" s="62"/>
-      <c r="BT34" s="62"/>
-      <c r="BU34" s="62"/>
-      <c r="BV34" s="62"/>
-      <c r="BW34" s="62"/>
-      <c r="BX34" s="62"/>
-      <c r="BY34" s="37"/>
-      <c r="BZ34" s="37"/>
-      <c r="CA34" s="37"/>
-      <c r="CB34" s="37"/>
-      <c r="CC34" s="37"/>
-      <c r="CD34" s="37"/>
-      <c r="CE34" s="37"/>
-      <c r="CF34" s="37"/>
-      <c r="CG34" s="37"/>
-      <c r="CH34" s="37"/>
-      <c r="CI34" s="37"/>
-      <c r="CJ34" s="37"/>
-      <c r="CK34" s="37"/>
-      <c r="CL34" s="37"/>
-      <c r="CM34" s="37"/>
-      <c r="CN34" s="37"/>
-      <c r="CO34" s="37"/>
-      <c r="CP34" s="37"/>
-      <c r="CQ34" s="37"/>
-      <c r="CR34" s="37"/>
-      <c r="CS34" s="37"/>
-      <c r="CT34" s="37"/>
-      <c r="CU34" s="37"/>
-      <c r="CV34" s="37"/>
-      <c r="CW34" s="37"/>
-      <c r="CX34" s="37"/>
-      <c r="CY34" s="37"/>
-      <c r="CZ34" s="37"/>
-      <c r="DA34" s="37"/>
-      <c r="DB34" s="37"/>
-      <c r="DC34" s="37"/>
-      <c r="DD34" s="37"/>
-      <c r="DE34" s="37"/>
-      <c r="DF34" s="37"/>
-      <c r="DG34" s="37"/>
+      <c r="AI34" s="47"/>
+      <c r="AJ34" s="47"/>
+      <c r="AK34" s="47"/>
+      <c r="AL34" s="47"/>
+      <c r="AM34" s="47"/>
+      <c r="AN34" s="47"/>
+      <c r="AO34" s="47"/>
+      <c r="AP34" s="47"/>
+      <c r="AQ34" s="47"/>
+      <c r="AR34" s="47"/>
+      <c r="AS34" s="47"/>
+      <c r="AT34" s="47"/>
+      <c r="AU34" s="47"/>
+      <c r="AV34" s="47"/>
+      <c r="AW34" s="47"/>
+      <c r="AX34" s="47"/>
+      <c r="AY34" s="47"/>
+      <c r="AZ34" s="47"/>
+      <c r="BA34" s="47"/>
+      <c r="BB34" s="47"/>
+      <c r="BC34" s="47"/>
+      <c r="BD34" s="47"/>
+      <c r="BE34" s="47"/>
+      <c r="BF34" s="47"/>
+      <c r="BG34" s="47"/>
+      <c r="BH34" s="47"/>
+      <c r="BI34" s="47"/>
+      <c r="BJ34" s="47"/>
+      <c r="BK34" s="47"/>
+      <c r="BL34" s="47"/>
+      <c r="BM34" s="47"/>
+      <c r="BN34" s="47"/>
+      <c r="BO34" s="47"/>
+      <c r="BP34" s="47"/>
+      <c r="BQ34" s="47"/>
+      <c r="BR34" s="47"/>
+      <c r="BS34" s="47"/>
+      <c r="BT34" s="47"/>
+      <c r="BU34" s="47"/>
+      <c r="BV34" s="47"/>
+      <c r="BW34" s="47"/>
+      <c r="BX34" s="47"/>
+      <c r="BY34" s="47"/>
+      <c r="BZ34" s="47"/>
+      <c r="CA34" s="47"/>
+      <c r="CB34" s="47"/>
+      <c r="CC34" s="47"/>
+      <c r="CD34" s="47"/>
+      <c r="CE34" s="47"/>
+      <c r="CF34" s="47"/>
+      <c r="CG34" s="47"/>
+      <c r="CH34" s="47"/>
+      <c r="CI34" s="47"/>
+      <c r="CJ34" s="61"/>
+      <c r="CK34" s="61"/>
+      <c r="CL34" s="44"/>
+      <c r="CM34" s="44"/>
+      <c r="CN34" s="65"/>
+      <c r="CO34" s="78"/>
+      <c r="CP34" s="70"/>
+      <c r="CQ34" s="65"/>
+      <c r="CR34" s="44"/>
+      <c r="CS34" s="44"/>
+      <c r="CT34" s="44"/>
+      <c r="CU34" s="44"/>
+      <c r="CV34" s="44"/>
+      <c r="CW34" s="44"/>
+      <c r="CX34" s="44"/>
+      <c r="CY34" s="44"/>
+      <c r="CZ34" s="44"/>
+      <c r="DA34" s="44"/>
+      <c r="DB34" s="58"/>
+      <c r="DC34" s="58"/>
+      <c r="DD34" s="58"/>
+      <c r="DE34" s="58"/>
+      <c r="DF34" s="58"/>
+      <c r="DG34" s="58"/>
       <c r="DH34" s="37"/>
       <c r="DI34" s="37"/>
       <c r="DJ34" s="37"/>
@@ -5442,10 +5505,10 @@
       <c r="EE34" s="37"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="57">
-        <v>45873.0</v>
-      </c>
-      <c r="B35" s="63" t="s">
+      <c r="A35" s="54">
+        <v>46026.0</v>
+      </c>
+      <c r="B35" s="79" t="s">
         <v>59</v>
       </c>
       <c r="C35" s="37"/>
@@ -5453,8 +5516,8 @@
       <c r="E35" s="37"/>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
       <c r="J35" s="37"/>
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>
@@ -5483,80 +5546,80 @@
       <c r="AI35" s="37"/>
       <c r="AJ35" s="37"/>
       <c r="AK35" s="37"/>
-      <c r="AL35" s="37"/>
-      <c r="AM35" s="37"/>
-      <c r="AN35" s="37"/>
-      <c r="AO35" s="37"/>
-      <c r="AP35" s="37"/>
-      <c r="AQ35" s="37"/>
-      <c r="AR35" s="37"/>
-      <c r="AS35" s="37"/>
-      <c r="AT35" s="37"/>
-      <c r="AU35" s="37"/>
-      <c r="AV35" s="37"/>
-      <c r="AW35" s="37"/>
-      <c r="AX35" s="37"/>
-      <c r="AY35" s="37"/>
-      <c r="AZ35" s="37"/>
-      <c r="BA35" s="37"/>
-      <c r="BB35" s="37"/>
-      <c r="BC35" s="37"/>
-      <c r="BD35" s="37"/>
-      <c r="BE35" s="37"/>
-      <c r="BF35" s="37"/>
-      <c r="BG35" s="37"/>
-      <c r="BH35" s="37"/>
-      <c r="BI35" s="37"/>
-      <c r="BJ35" s="37"/>
-      <c r="BK35" s="37"/>
-      <c r="BL35" s="37"/>
-      <c r="BM35" s="37"/>
-      <c r="BN35" s="37"/>
-      <c r="BO35" s="37"/>
-      <c r="BP35" s="37"/>
-      <c r="BQ35" s="37"/>
-      <c r="BR35" s="62"/>
-      <c r="BS35" s="62"/>
-      <c r="BT35" s="62"/>
-      <c r="BU35" s="62"/>
-      <c r="BV35" s="62"/>
-      <c r="BW35" s="62"/>
-      <c r="BX35" s="62"/>
-      <c r="BY35" s="62"/>
-      <c r="BZ35" s="62"/>
-      <c r="CA35" s="62"/>
-      <c r="CB35" s="62"/>
-      <c r="CC35" s="62"/>
-      <c r="CD35" s="62"/>
-      <c r="CE35" s="62"/>
-      <c r="CF35" s="37"/>
-      <c r="CG35" s="37"/>
-      <c r="CH35" s="37"/>
-      <c r="CI35" s="37"/>
-      <c r="CJ35" s="37"/>
-      <c r="CK35" s="37"/>
-      <c r="CL35" s="37"/>
-      <c r="CM35" s="37"/>
-      <c r="CN35" s="37"/>
-      <c r="CO35" s="37"/>
-      <c r="CP35" s="37"/>
-      <c r="CQ35" s="37"/>
-      <c r="CR35" s="37"/>
-      <c r="CS35" s="37"/>
-      <c r="CT35" s="37"/>
-      <c r="CU35" s="37"/>
-      <c r="CV35" s="37"/>
-      <c r="CW35" s="37"/>
-      <c r="CX35" s="37"/>
-      <c r="CY35" s="37"/>
-      <c r="CZ35" s="37"/>
-      <c r="DA35" s="37"/>
-      <c r="DB35" s="37"/>
-      <c r="DC35" s="37"/>
-      <c r="DD35" s="37"/>
-      <c r="DE35" s="37"/>
-      <c r="DF35" s="37"/>
-      <c r="DG35" s="37"/>
+      <c r="AL35" s="44"/>
+      <c r="AM35" s="44"/>
+      <c r="AN35" s="44"/>
+      <c r="AO35" s="44"/>
+      <c r="AP35" s="44"/>
+      <c r="AQ35" s="44"/>
+      <c r="AR35" s="44"/>
+      <c r="AS35" s="44"/>
+      <c r="AT35" s="44"/>
+      <c r="AU35" s="44"/>
+      <c r="AV35" s="44"/>
+      <c r="AW35" s="44"/>
+      <c r="AX35" s="44"/>
+      <c r="AY35" s="44"/>
+      <c r="AZ35" s="44"/>
+      <c r="BA35" s="44"/>
+      <c r="BB35" s="44"/>
+      <c r="BC35" s="44"/>
+      <c r="BD35" s="44"/>
+      <c r="BE35" s="44"/>
+      <c r="BF35" s="44"/>
+      <c r="BG35" s="44"/>
+      <c r="BH35" s="44"/>
+      <c r="BI35" s="44"/>
+      <c r="BJ35" s="44"/>
+      <c r="BK35" s="61"/>
+      <c r="BL35" s="61"/>
+      <c r="BM35" s="61"/>
+      <c r="BN35" s="61"/>
+      <c r="BO35" s="61"/>
+      <c r="BP35" s="44"/>
+      <c r="BQ35" s="44"/>
+      <c r="BR35" s="57"/>
+      <c r="BS35" s="57"/>
+      <c r="BT35" s="57"/>
+      <c r="BU35" s="57"/>
+      <c r="BV35" s="57"/>
+      <c r="BW35" s="44"/>
+      <c r="BX35" s="44"/>
+      <c r="BY35" s="44"/>
+      <c r="BZ35" s="44"/>
+      <c r="CA35" s="44"/>
+      <c r="CB35" s="44"/>
+      <c r="CC35" s="44"/>
+      <c r="CD35" s="44"/>
+      <c r="CE35" s="44"/>
+      <c r="CF35" s="44"/>
+      <c r="CG35" s="44"/>
+      <c r="CH35" s="44"/>
+      <c r="CI35" s="44"/>
+      <c r="CJ35" s="44"/>
+      <c r="CK35" s="44"/>
+      <c r="CL35" s="47"/>
+      <c r="CM35" s="47"/>
+      <c r="CN35" s="47"/>
+      <c r="CO35" s="47"/>
+      <c r="CP35" s="47"/>
+      <c r="CQ35" s="47"/>
+      <c r="CR35" s="44"/>
+      <c r="CS35" s="44"/>
+      <c r="CT35" s="78"/>
+      <c r="CU35" s="70"/>
+      <c r="CV35" s="78"/>
+      <c r="CW35" s="44"/>
+      <c r="CX35" s="44"/>
+      <c r="CY35" s="44"/>
+      <c r="CZ35" s="44"/>
+      <c r="DA35" s="44"/>
+      <c r="DB35" s="47"/>
+      <c r="DC35" s="47"/>
+      <c r="DD35" s="47"/>
+      <c r="DE35" s="47"/>
+      <c r="DF35" s="47"/>
+      <c r="DG35" s="47"/>
       <c r="DH35" s="37"/>
       <c r="DI35" s="37"/>
       <c r="DJ35" s="37"/>
@@ -5583,10 +5646,10 @@
       <c r="EE35" s="37"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="57">
-        <v>45904.0</v>
-      </c>
-      <c r="B36" s="64" t="s">
+      <c r="A36" s="54">
+        <v>46057.0</v>
+      </c>
+      <c r="B36" s="80" t="s">
         <v>60</v>
       </c>
       <c r="C36" s="37"/>
@@ -5594,8 +5657,8 @@
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
       <c r="J36" s="37"/>
       <c r="K36" s="37"/>
       <c r="L36" s="37"/>
@@ -5624,80 +5687,80 @@
       <c r="AI36" s="37"/>
       <c r="AJ36" s="37"/>
       <c r="AK36" s="37"/>
-      <c r="AL36" s="37"/>
-      <c r="AM36" s="37"/>
-      <c r="AN36" s="37"/>
-      <c r="AO36" s="37"/>
-      <c r="AP36" s="37"/>
-      <c r="AQ36" s="37"/>
-      <c r="AR36" s="37"/>
-      <c r="AS36" s="37"/>
-      <c r="AT36" s="37"/>
-      <c r="AU36" s="37"/>
-      <c r="AV36" s="37"/>
-      <c r="AW36" s="37"/>
-      <c r="AX36" s="37"/>
-      <c r="AY36" s="37"/>
-      <c r="AZ36" s="37"/>
-      <c r="BA36" s="37"/>
-      <c r="BB36" s="37"/>
-      <c r="BC36" s="37"/>
-      <c r="BD36" s="37"/>
-      <c r="BE36" s="37"/>
-      <c r="BF36" s="37"/>
-      <c r="BG36" s="37"/>
-      <c r="BH36" s="37"/>
-      <c r="BI36" s="37"/>
-      <c r="BJ36" s="37"/>
-      <c r="BK36" s="37"/>
-      <c r="BL36" s="37"/>
-      <c r="BM36" s="37"/>
-      <c r="BN36" s="37"/>
-      <c r="BO36" s="37"/>
-      <c r="BP36" s="37"/>
-      <c r="BQ36" s="37"/>
-      <c r="BR36" s="37"/>
-      <c r="BS36" s="37"/>
-      <c r="BT36" s="37"/>
-      <c r="BU36" s="37"/>
-      <c r="BV36" s="37"/>
-      <c r="BW36" s="37"/>
-      <c r="BX36" s="37"/>
-      <c r="BY36" s="62"/>
-      <c r="BZ36" s="62"/>
-      <c r="CA36" s="62"/>
-      <c r="CB36" s="62"/>
-      <c r="CC36" s="62"/>
-      <c r="CD36" s="62"/>
-      <c r="CE36" s="62"/>
-      <c r="CF36" s="37"/>
-      <c r="CG36" s="37"/>
-      <c r="CH36" s="37"/>
-      <c r="CI36" s="37"/>
-      <c r="CJ36" s="37"/>
-      <c r="CK36" s="37"/>
-      <c r="CL36" s="37"/>
-      <c r="CM36" s="37"/>
-      <c r="CN36" s="37"/>
-      <c r="CO36" s="37"/>
-      <c r="CP36" s="37"/>
-      <c r="CQ36" s="37"/>
-      <c r="CR36" s="37"/>
-      <c r="CS36" s="37"/>
-      <c r="CT36" s="37"/>
-      <c r="CU36" s="37"/>
-      <c r="CV36" s="37"/>
-      <c r="CW36" s="37"/>
-      <c r="CX36" s="37"/>
-      <c r="CY36" s="37"/>
-      <c r="CZ36" s="37"/>
-      <c r="DA36" s="37"/>
-      <c r="DB36" s="37"/>
-      <c r="DC36" s="37"/>
-      <c r="DD36" s="37"/>
-      <c r="DE36" s="37"/>
-      <c r="DF36" s="37"/>
-      <c r="DG36" s="37"/>
+      <c r="AL36" s="44"/>
+      <c r="AM36" s="44"/>
+      <c r="AN36" s="44"/>
+      <c r="AO36" s="44"/>
+      <c r="AP36" s="44"/>
+      <c r="AQ36" s="44"/>
+      <c r="AR36" s="44"/>
+      <c r="AS36" s="44"/>
+      <c r="AT36" s="44"/>
+      <c r="AU36" s="44"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
+      <c r="BB36" s="44"/>
+      <c r="BC36" s="44"/>
+      <c r="BD36" s="44"/>
+      <c r="BE36" s="44"/>
+      <c r="BF36" s="44"/>
+      <c r="BG36" s="44"/>
+      <c r="BH36" s="44"/>
+      <c r="BI36" s="44"/>
+      <c r="BJ36" s="44"/>
+      <c r="BK36" s="44"/>
+      <c r="BL36" s="44"/>
+      <c r="BM36" s="44"/>
+      <c r="BN36" s="44"/>
+      <c r="BO36" s="44"/>
+      <c r="BP36" s="44"/>
+      <c r="BQ36" s="44"/>
+      <c r="BR36" s="47"/>
+      <c r="BS36" s="47"/>
+      <c r="BT36" s="47"/>
+      <c r="BU36" s="47"/>
+      <c r="BV36" s="47"/>
+      <c r="BW36" s="44"/>
+      <c r="BX36" s="44"/>
+      <c r="BY36" s="44"/>
+      <c r="BZ36" s="44"/>
+      <c r="CA36" s="44"/>
+      <c r="CB36" s="44"/>
+      <c r="CC36" s="44"/>
+      <c r="CD36" s="44"/>
+      <c r="CE36" s="44"/>
+      <c r="CF36" s="44"/>
+      <c r="CG36" s="44"/>
+      <c r="CH36" s="44"/>
+      <c r="CI36" s="44"/>
+      <c r="CJ36" s="44"/>
+      <c r="CK36" s="44"/>
+      <c r="CL36" s="47"/>
+      <c r="CM36" s="47"/>
+      <c r="CN36" s="47"/>
+      <c r="CO36" s="47"/>
+      <c r="CP36" s="47"/>
+      <c r="CQ36" s="47"/>
+      <c r="CR36" s="44"/>
+      <c r="CS36" s="44"/>
+      <c r="CT36" s="44"/>
+      <c r="CU36" s="44"/>
+      <c r="CV36" s="70"/>
+      <c r="CW36" s="70"/>
+      <c r="CX36" s="70"/>
+      <c r="CY36" s="44"/>
+      <c r="CZ36" s="44"/>
+      <c r="DA36" s="47"/>
+      <c r="DB36" s="47"/>
+      <c r="DC36" s="47"/>
+      <c r="DD36" s="47"/>
+      <c r="DE36" s="47"/>
+      <c r="DF36" s="61"/>
+      <c r="DG36" s="61"/>
       <c r="DH36" s="37"/>
       <c r="DI36" s="37"/>
       <c r="DJ36" s="37"/>
@@ -5724,8 +5787,11 @@
       <c r="EE36" s="37"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="64" t="s">
+      <c r="A37" s="62" t="s">
         <v>61</v>
+      </c>
+      <c r="B37" s="81" t="s">
+        <v>62</v>
       </c>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -5762,87 +5828,87 @@
       <c r="AI37" s="37"/>
       <c r="AJ37" s="37"/>
       <c r="AK37" s="37"/>
-      <c r="AL37" s="37"/>
-      <c r="AM37" s="37"/>
-      <c r="AN37" s="37"/>
-      <c r="AO37" s="37"/>
-      <c r="AP37" s="37"/>
-      <c r="AQ37" s="37"/>
-      <c r="AR37" s="37"/>
-      <c r="AS37" s="37"/>
-      <c r="AT37" s="37"/>
-      <c r="AU37" s="37"/>
-      <c r="AV37" s="37"/>
-      <c r="AW37" s="37"/>
-      <c r="AX37" s="37"/>
-      <c r="AY37" s="37"/>
-      <c r="AZ37" s="37"/>
-      <c r="BA37" s="37"/>
-      <c r="BB37" s="37"/>
-      <c r="BC37" s="37"/>
-      <c r="BD37" s="37"/>
-      <c r="BE37" s="37"/>
-      <c r="BF37" s="37"/>
-      <c r="BG37" s="37"/>
-      <c r="BH37" s="37"/>
-      <c r="BI37" s="37"/>
-      <c r="BJ37" s="37"/>
-      <c r="BK37" s="37"/>
-      <c r="BL37" s="37"/>
-      <c r="BM37" s="37"/>
-      <c r="BN37" s="37"/>
-      <c r="BO37" s="37"/>
-      <c r="BP37" s="37"/>
-      <c r="BQ37" s="37"/>
-      <c r="BR37" s="37"/>
-      <c r="BS37" s="37"/>
-      <c r="BT37" s="37"/>
-      <c r="BU37" s="37"/>
-      <c r="BV37" s="37"/>
-      <c r="BW37" s="37"/>
-      <c r="BX37" s="37"/>
-      <c r="BY37" s="37"/>
-      <c r="BZ37" s="37"/>
-      <c r="CA37" s="37"/>
-      <c r="CB37" s="37"/>
-      <c r="CC37" s="37"/>
-      <c r="CD37" s="37"/>
+      <c r="AL37" s="44"/>
+      <c r="AM37" s="44"/>
+      <c r="AN37" s="44"/>
+      <c r="AO37" s="44"/>
+      <c r="AP37" s="44"/>
+      <c r="AQ37" s="44"/>
+      <c r="AR37" s="44"/>
+      <c r="AS37" s="44"/>
+      <c r="AT37" s="44"/>
+      <c r="AU37" s="44"/>
+      <c r="AV37" s="44"/>
+      <c r="AW37" s="44"/>
+      <c r="AX37" s="44"/>
+      <c r="AY37" s="44"/>
+      <c r="AZ37" s="44"/>
+      <c r="BA37" s="44"/>
+      <c r="BB37" s="44"/>
+      <c r="BC37" s="44"/>
+      <c r="BD37" s="44"/>
+      <c r="BE37" s="44"/>
+      <c r="BF37" s="44"/>
+      <c r="BG37" s="44"/>
+      <c r="BH37" s="44"/>
+      <c r="BI37" s="44"/>
+      <c r="BJ37" s="44"/>
+      <c r="BK37" s="44"/>
+      <c r="BL37" s="44"/>
+      <c r="BM37" s="44"/>
+      <c r="BN37" s="44"/>
+      <c r="BO37" s="44"/>
+      <c r="BP37" s="44"/>
+      <c r="BQ37" s="44"/>
+      <c r="BR37" s="61"/>
+      <c r="BS37" s="61"/>
+      <c r="BT37" s="61"/>
+      <c r="BU37" s="61"/>
+      <c r="BV37" s="61"/>
+      <c r="BW37" s="44"/>
+      <c r="BX37" s="44"/>
+      <c r="BY37" s="57"/>
+      <c r="BZ37" s="57"/>
+      <c r="CA37" s="57"/>
+      <c r="CB37" s="57"/>
+      <c r="CC37" s="57"/>
+      <c r="CD37" s="44"/>
       <c r="CE37" s="44"/>
-      <c r="CF37" s="62"/>
-      <c r="CG37" s="62"/>
-      <c r="CH37" s="62"/>
-      <c r="CI37" s="62"/>
-      <c r="CJ37" s="62"/>
-      <c r="CK37" s="65"/>
-      <c r="CL37" s="65"/>
-      <c r="CM37" s="37"/>
-      <c r="CN37" s="37"/>
-      <c r="CO37" s="37"/>
-      <c r="CP37" s="37"/>
-      <c r="CQ37" s="37"/>
-      <c r="CR37" s="37"/>
-      <c r="CS37" s="37"/>
-      <c r="CT37" s="37"/>
-      <c r="CU37" s="37"/>
-      <c r="CV37" s="37"/>
-      <c r="CW37" s="37"/>
-      <c r="CX37" s="37"/>
-      <c r="CY37" s="37"/>
-      <c r="CZ37" s="37"/>
-      <c r="DA37" s="37"/>
-      <c r="DB37" s="37"/>
-      <c r="DC37" s="37"/>
-      <c r="DD37" s="37"/>
-      <c r="DE37" s="37"/>
+      <c r="CF37" s="37"/>
+      <c r="CG37" s="37"/>
+      <c r="CH37" s="37"/>
+      <c r="CI37" s="37"/>
+      <c r="CJ37" s="37"/>
+      <c r="CK37" s="44"/>
+      <c r="CL37" s="44"/>
+      <c r="CM37" s="57"/>
+      <c r="CN37" s="57"/>
+      <c r="CO37" s="57"/>
+      <c r="CP37" s="57"/>
+      <c r="CQ37" s="57"/>
+      <c r="CR37" s="44"/>
+      <c r="CS37" s="57"/>
+      <c r="CT37" s="57"/>
+      <c r="CU37" s="44"/>
+      <c r="CV37" s="47"/>
+      <c r="CW37" s="61"/>
+      <c r="CX37" s="61"/>
+      <c r="CY37" s="61"/>
+      <c r="CZ37" s="61"/>
+      <c r="DA37" s="47"/>
+      <c r="DB37" s="47"/>
+      <c r="DC37" s="47"/>
+      <c r="DD37" s="47"/>
+      <c r="DE37" s="47"/>
       <c r="DF37" s="37"/>
       <c r="DG37" s="37"/>
-      <c r="DH37" s="37"/>
-      <c r="DI37" s="37"/>
-      <c r="DJ37" s="37"/>
-      <c r="DK37" s="37"/>
-      <c r="DL37" s="37"/>
-      <c r="DM37" s="37"/>
-      <c r="DN37" s="37"/>
+      <c r="DH37" s="58"/>
+      <c r="DI37" s="58"/>
+      <c r="DJ37" s="58"/>
+      <c r="DK37" s="58"/>
+      <c r="DL37" s="58"/>
+      <c r="DM37" s="58"/>
+      <c r="DN37" s="58"/>
       <c r="DO37" s="37"/>
       <c r="DP37" s="37"/>
       <c r="DQ37" s="37"/>
@@ -5862,16 +5928,19 @@
       <c r="EE37" s="37"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="63" t="s">
-        <v>62</v>
+      <c r="A38" s="62">
+        <v>5.1</v>
+      </c>
+      <c r="B38" s="74" t="s">
+        <v>63</v>
       </c>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
       <c r="L38" s="37"/>
@@ -5902,108 +5971,108 @@
       <c r="AK38" s="37"/>
       <c r="AL38" s="37"/>
       <c r="AM38" s="37"/>
-      <c r="AN38" s="37"/>
-      <c r="AO38" s="37"/>
-      <c r="AP38" s="37"/>
-      <c r="AQ38" s="37"/>
-      <c r="AR38" s="37"/>
-      <c r="AS38" s="37"/>
-      <c r="AT38" s="37"/>
-      <c r="AU38" s="37"/>
-      <c r="AV38" s="37"/>
-      <c r="AW38" s="37"/>
-      <c r="AX38" s="37"/>
-      <c r="AY38" s="37"/>
-      <c r="AZ38" s="37"/>
-      <c r="BA38" s="37"/>
-      <c r="BB38" s="37"/>
-      <c r="BC38" s="37"/>
-      <c r="BD38" s="37"/>
-      <c r="BE38" s="37"/>
-      <c r="BF38" s="37"/>
-      <c r="BG38" s="37"/>
-      <c r="BH38" s="37"/>
-      <c r="BI38" s="37"/>
-      <c r="BJ38" s="37"/>
-      <c r="BK38" s="37"/>
-      <c r="BL38" s="37"/>
-      <c r="BM38" s="37"/>
-      <c r="BN38" s="37"/>
-      <c r="BO38" s="37"/>
-      <c r="BP38" s="37"/>
-      <c r="BQ38" s="37"/>
-      <c r="BR38" s="37"/>
-      <c r="BS38" s="37"/>
-      <c r="BT38" s="37"/>
-      <c r="BU38" s="37"/>
-      <c r="BV38" s="37"/>
-      <c r="BW38" s="37"/>
-      <c r="BX38" s="37"/>
-      <c r="BY38" s="37"/>
-      <c r="BZ38" s="37"/>
-      <c r="CA38" s="37"/>
-      <c r="CB38" s="37"/>
-      <c r="CC38" s="37"/>
-      <c r="CD38" s="37"/>
-      <c r="CE38" s="37"/>
+      <c r="AN38" s="44"/>
+      <c r="AO38" s="44"/>
+      <c r="AP38" s="44"/>
+      <c r="AQ38" s="44"/>
+      <c r="AR38" s="44"/>
+      <c r="AS38" s="44"/>
+      <c r="AT38" s="44"/>
+      <c r="AU38" s="44"/>
+      <c r="AV38" s="44"/>
+      <c r="AW38" s="44"/>
+      <c r="AX38" s="44"/>
+      <c r="AY38" s="44"/>
+      <c r="AZ38" s="44"/>
+      <c r="BA38" s="44"/>
+      <c r="BB38" s="44"/>
+      <c r="BC38" s="44"/>
+      <c r="BD38" s="44"/>
+      <c r="BE38" s="44"/>
+      <c r="BF38" s="44"/>
+      <c r="BG38" s="44"/>
+      <c r="BH38" s="44"/>
+      <c r="BI38" s="44"/>
+      <c r="BJ38" s="44"/>
+      <c r="BK38" s="44"/>
+      <c r="BL38" s="44"/>
+      <c r="BM38" s="44"/>
+      <c r="BN38" s="44"/>
+      <c r="BO38" s="44"/>
+      <c r="BP38" s="44"/>
+      <c r="BQ38" s="44"/>
+      <c r="BR38" s="44"/>
+      <c r="BS38" s="44"/>
+      <c r="BT38" s="44"/>
+      <c r="BU38" s="44"/>
+      <c r="BV38" s="44"/>
+      <c r="BW38" s="44"/>
+      <c r="BX38" s="44"/>
+      <c r="BY38" s="47"/>
+      <c r="BZ38" s="47"/>
+      <c r="CA38" s="47"/>
+      <c r="CB38" s="47"/>
+      <c r="CC38" s="47"/>
+      <c r="CD38" s="44"/>
+      <c r="CE38" s="44"/>
       <c r="CF38" s="37"/>
       <c r="CG38" s="37"/>
       <c r="CH38" s="37"/>
       <c r="CI38" s="37"/>
       <c r="CJ38" s="37"/>
-      <c r="CK38" s="37"/>
-      <c r="CL38" s="37"/>
-      <c r="CM38" s="37"/>
-      <c r="CN38" s="37"/>
-      <c r="CO38" s="37"/>
-      <c r="CP38" s="37"/>
-      <c r="CQ38" s="37"/>
-      <c r="CR38" s="37"/>
-      <c r="CS38" s="37"/>
-      <c r="CT38" s="37"/>
-      <c r="CU38" s="37"/>
-      <c r="CV38" s="37"/>
-      <c r="CW38" s="37"/>
-      <c r="CX38" s="37"/>
-      <c r="CY38" s="37"/>
-      <c r="CZ38" s="37"/>
-      <c r="DA38" s="37"/>
-      <c r="DB38" s="37"/>
-      <c r="DC38" s="37"/>
-      <c r="DD38" s="37"/>
-      <c r="DE38" s="37"/>
-      <c r="DF38" s="37"/>
-      <c r="DG38" s="37"/>
-      <c r="DH38" s="37"/>
-      <c r="DI38" s="37"/>
-      <c r="DJ38" s="37"/>
-      <c r="DK38" s="37"/>
-      <c r="DL38" s="37"/>
-      <c r="DM38" s="37"/>
-      <c r="DN38" s="37"/>
-      <c r="DO38" s="37"/>
-      <c r="DP38" s="37"/>
-      <c r="DQ38" s="37"/>
-      <c r="DR38" s="37"/>
-      <c r="DS38" s="37"/>
-      <c r="DT38" s="37"/>
-      <c r="DU38" s="37"/>
-      <c r="DV38" s="37"/>
-      <c r="DW38" s="37"/>
-      <c r="DX38" s="37"/>
-      <c r="DY38" s="37"/>
-      <c r="DZ38" s="37"/>
-      <c r="EA38" s="37"/>
-      <c r="EB38" s="37"/>
-      <c r="EC38" s="37"/>
-      <c r="ED38" s="37"/>
-      <c r="EE38" s="37"/>
+      <c r="CK38" s="44"/>
+      <c r="CL38" s="44"/>
+      <c r="CM38" s="61"/>
+      <c r="CN38" s="61"/>
+      <c r="CO38" s="47"/>
+      <c r="CP38" s="47"/>
+      <c r="CQ38" s="47"/>
+      <c r="CR38" s="57"/>
+      <c r="CS38" s="69"/>
+      <c r="CT38" s="47"/>
+      <c r="CU38" s="47"/>
+      <c r="CV38" s="47"/>
+      <c r="CW38" s="47"/>
+      <c r="CX38" s="47"/>
+      <c r="CY38" s="44"/>
+      <c r="CZ38" s="44"/>
+      <c r="DA38" s="70"/>
+      <c r="DB38" s="70"/>
+      <c r="DC38" s="70"/>
+      <c r="DD38" s="44"/>
+      <c r="DE38" s="44"/>
+      <c r="DF38" s="58"/>
+      <c r="DG38" s="58"/>
+      <c r="DH38" s="47"/>
+      <c r="DI38" s="61"/>
+      <c r="DJ38" s="61"/>
+      <c r="DK38" s="61"/>
+      <c r="DL38" s="61"/>
+      <c r="DM38" s="61"/>
+      <c r="DN38" s="61"/>
+      <c r="DO38" s="58"/>
+      <c r="DP38" s="58"/>
+      <c r="DQ38" s="58"/>
+      <c r="DR38" s="58"/>
+      <c r="DS38" s="58"/>
+      <c r="DT38" s="58"/>
+      <c r="DU38" s="58"/>
+      <c r="DV38" s="58"/>
+      <c r="DW38" s="58"/>
+      <c r="DX38" s="58"/>
+      <c r="DY38" s="58"/>
+      <c r="DZ38" s="58"/>
+      <c r="EA38" s="58"/>
+      <c r="EB38" s="58"/>
+      <c r="EC38" s="58"/>
+      <c r="ED38" s="58"/>
+      <c r="EE38" s="58"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="61" t="s">
+      <c r="A39" s="54">
+        <v>45693.0</v>
+      </c>
+      <c r="B39" s="74" t="s">
         <v>64</v>
       </c>
       <c r="C39" s="37"/>
@@ -6043,108 +6112,108 @@
       <c r="AK39" s="37"/>
       <c r="AL39" s="37"/>
       <c r="AM39" s="37"/>
-      <c r="AN39" s="37"/>
-      <c r="AO39" s="37"/>
-      <c r="AP39" s="37"/>
-      <c r="AQ39" s="37"/>
-      <c r="AR39" s="37"/>
-      <c r="AS39" s="37"/>
-      <c r="AT39" s="37"/>
-      <c r="AU39" s="37"/>
-      <c r="AV39" s="37"/>
-      <c r="AW39" s="37"/>
-      <c r="AX39" s="37"/>
-      <c r="AY39" s="37"/>
-      <c r="AZ39" s="37"/>
-      <c r="BA39" s="37"/>
-      <c r="BB39" s="37"/>
-      <c r="BC39" s="37"/>
-      <c r="BD39" s="37"/>
-      <c r="BE39" s="37"/>
-      <c r="BF39" s="37"/>
-      <c r="BG39" s="37"/>
-      <c r="BH39" s="37"/>
-      <c r="BI39" s="37"/>
-      <c r="BJ39" s="37"/>
-      <c r="BK39" s="37"/>
-      <c r="BL39" s="37"/>
-      <c r="BM39" s="37"/>
-      <c r="BN39" s="37"/>
-      <c r="BO39" s="37"/>
-      <c r="BP39" s="37"/>
-      <c r="BQ39" s="37"/>
-      <c r="BR39" s="37"/>
-      <c r="BS39" s="37"/>
-      <c r="BT39" s="37"/>
-      <c r="BU39" s="37"/>
-      <c r="BV39" s="37"/>
-      <c r="BW39" s="37"/>
-      <c r="BX39" s="37"/>
-      <c r="BY39" s="37"/>
-      <c r="BZ39" s="37"/>
-      <c r="CA39" s="37"/>
-      <c r="CB39" s="37"/>
-      <c r="CC39" s="37"/>
-      <c r="CD39" s="37"/>
-      <c r="CE39" s="37"/>
-      <c r="CF39" s="37"/>
-      <c r="CG39" s="37"/>
-      <c r="CH39" s="37"/>
-      <c r="CI39" s="37"/>
-      <c r="CJ39" s="37"/>
-      <c r="CK39" s="37"/>
-      <c r="CL39" s="37"/>
-      <c r="CM39" s="65"/>
-      <c r="CN39" s="65"/>
-      <c r="CO39" s="65"/>
-      <c r="CP39" s="65"/>
-      <c r="CQ39" s="65"/>
-      <c r="CR39" s="65"/>
-      <c r="CS39" s="65"/>
-      <c r="CT39" s="37"/>
-      <c r="CU39" s="37"/>
-      <c r="CV39" s="37"/>
-      <c r="CW39" s="37"/>
-      <c r="CX39" s="37"/>
-      <c r="CY39" s="37"/>
-      <c r="CZ39" s="37"/>
-      <c r="DA39" s="37"/>
-      <c r="DB39" s="37"/>
-      <c r="DC39" s="37"/>
-      <c r="DD39" s="37"/>
-      <c r="DE39" s="37"/>
-      <c r="DF39" s="37"/>
-      <c r="DG39" s="37"/>
-      <c r="DH39" s="37"/>
-      <c r="DI39" s="37"/>
-      <c r="DJ39" s="37"/>
-      <c r="DK39" s="37"/>
-      <c r="DL39" s="37"/>
-      <c r="DM39" s="37"/>
-      <c r="DN39" s="37"/>
-      <c r="DO39" s="37"/>
-      <c r="DP39" s="37"/>
-      <c r="DQ39" s="37"/>
-      <c r="DR39" s="37"/>
-      <c r="DS39" s="37"/>
-      <c r="DT39" s="37"/>
-      <c r="DU39" s="37"/>
-      <c r="DV39" s="37"/>
-      <c r="DW39" s="37"/>
-      <c r="DX39" s="37"/>
-      <c r="DY39" s="37"/>
-      <c r="DZ39" s="37"/>
-      <c r="EA39" s="37"/>
-      <c r="EB39" s="37"/>
-      <c r="EC39" s="37"/>
-      <c r="ED39" s="37"/>
-      <c r="EE39" s="37"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
+      <c r="AP39" s="44"/>
+      <c r="AQ39" s="44"/>
+      <c r="AR39" s="44"/>
+      <c r="AS39" s="44"/>
+      <c r="AT39" s="44"/>
+      <c r="AU39" s="44"/>
+      <c r="AV39" s="44"/>
+      <c r="AW39" s="44"/>
+      <c r="AX39" s="44"/>
+      <c r="AY39" s="44"/>
+      <c r="AZ39" s="44"/>
+      <c r="BA39" s="44"/>
+      <c r="BB39" s="44"/>
+      <c r="BC39" s="44"/>
+      <c r="BD39" s="44"/>
+      <c r="BE39" s="44"/>
+      <c r="BF39" s="44"/>
+      <c r="BG39" s="44"/>
+      <c r="BH39" s="44"/>
+      <c r="BI39" s="44"/>
+      <c r="BJ39" s="44"/>
+      <c r="BK39" s="44"/>
+      <c r="BL39" s="44"/>
+      <c r="BM39" s="44"/>
+      <c r="BN39" s="44"/>
+      <c r="BO39" s="44"/>
+      <c r="BP39" s="44"/>
+      <c r="BQ39" s="44"/>
+      <c r="BR39" s="44"/>
+      <c r="BS39" s="44"/>
+      <c r="BT39" s="44"/>
+      <c r="BU39" s="44"/>
+      <c r="BV39" s="44"/>
+      <c r="BW39" s="44"/>
+      <c r="BX39" s="44"/>
+      <c r="BY39" s="61"/>
+      <c r="BZ39" s="61"/>
+      <c r="CA39" s="69"/>
+      <c r="CB39" s="61"/>
+      <c r="CC39" s="61"/>
+      <c r="CD39" s="44"/>
+      <c r="CE39" s="44"/>
+      <c r="CF39" s="57"/>
+      <c r="CG39" s="57"/>
+      <c r="CH39" s="57"/>
+      <c r="CI39" s="58"/>
+      <c r="CJ39" s="58"/>
+      <c r="CK39" s="44"/>
+      <c r="CL39" s="44"/>
+      <c r="CM39" s="44"/>
+      <c r="CN39" s="44"/>
+      <c r="CO39" s="47"/>
+      <c r="CP39" s="47"/>
+      <c r="CQ39" s="47"/>
+      <c r="CR39" s="46"/>
+      <c r="CS39" s="57"/>
+      <c r="CT39" s="57"/>
+      <c r="CU39" s="57"/>
+      <c r="CV39" s="57"/>
+      <c r="CW39" s="57"/>
+      <c r="CX39" s="57"/>
+      <c r="CY39" s="44"/>
+      <c r="CZ39" s="44"/>
+      <c r="DA39" s="47"/>
+      <c r="DB39" s="47"/>
+      <c r="DC39" s="82"/>
+      <c r="DD39" s="70"/>
+      <c r="DE39" s="70"/>
+      <c r="DF39" s="44"/>
+      <c r="DG39" s="44"/>
+      <c r="DH39" s="72"/>
+      <c r="DI39" s="70"/>
+      <c r="DJ39" s="70"/>
+      <c r="DK39" s="46"/>
+      <c r="DL39" s="46"/>
+      <c r="DM39" s="58"/>
+      <c r="DN39" s="58"/>
+      <c r="DO39" s="47"/>
+      <c r="DP39" s="47"/>
+      <c r="DQ39" s="47"/>
+      <c r="DR39" s="47"/>
+      <c r="DS39" s="47"/>
+      <c r="DT39" s="47"/>
+      <c r="DU39" s="47"/>
+      <c r="DV39" s="47"/>
+      <c r="DW39" s="47"/>
+      <c r="DX39" s="47"/>
+      <c r="DY39" s="47"/>
+      <c r="DZ39" s="47"/>
+      <c r="EA39" s="47"/>
+      <c r="EB39" s="47"/>
+      <c r="EC39" s="47"/>
+      <c r="ED39" s="47"/>
+      <c r="EE39" s="47"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="60">
-        <v>5.1</v>
-      </c>
-      <c r="B40" s="64" t="s">
+      <c r="A40" s="54">
+        <v>45721.0</v>
+      </c>
+      <c r="B40" s="74" t="s">
         <v>65</v>
       </c>
       <c r="C40" s="37"/>
@@ -6202,90 +6271,90 @@
       <c r="BC40" s="37"/>
       <c r="BD40" s="37"/>
       <c r="BE40" s="37"/>
-      <c r="BF40" s="37"/>
-      <c r="BG40" s="37"/>
-      <c r="BH40" s="37"/>
-      <c r="BI40" s="37"/>
-      <c r="BJ40" s="37"/>
-      <c r="BK40" s="37"/>
-      <c r="BL40" s="37"/>
-      <c r="BM40" s="37"/>
-      <c r="BN40" s="37"/>
-      <c r="BO40" s="37"/>
-      <c r="BP40" s="37"/>
-      <c r="BQ40" s="37"/>
-      <c r="BR40" s="37"/>
-      <c r="BS40" s="37"/>
-      <c r="BT40" s="37"/>
-      <c r="BU40" s="37"/>
-      <c r="BV40" s="37"/>
-      <c r="BW40" s="37"/>
-      <c r="BX40" s="37"/>
-      <c r="BY40" s="37"/>
-      <c r="BZ40" s="37"/>
-      <c r="CA40" s="37"/>
-      <c r="CB40" s="37"/>
-      <c r="CC40" s="37"/>
-      <c r="CD40" s="37"/>
-      <c r="CE40" s="37"/>
-      <c r="CF40" s="37"/>
-      <c r="CG40" s="37"/>
-      <c r="CH40" s="37"/>
-      <c r="CI40" s="37"/>
-      <c r="CJ40" s="37"/>
-      <c r="CK40" s="37"/>
-      <c r="CL40" s="37"/>
-      <c r="CM40" s="65"/>
-      <c r="CN40" s="65"/>
-      <c r="CO40" s="65"/>
-      <c r="CP40" s="65"/>
-      <c r="CQ40" s="65"/>
-      <c r="CR40" s="65"/>
-      <c r="CS40" s="65"/>
-      <c r="CT40" s="65"/>
-      <c r="CU40" s="65"/>
-      <c r="CV40" s="65"/>
-      <c r="CW40" s="65"/>
-      <c r="CX40" s="65"/>
-      <c r="CY40" s="65"/>
-      <c r="CZ40" s="65"/>
+      <c r="BF40" s="44"/>
+      <c r="BG40" s="44"/>
+      <c r="BH40" s="44"/>
+      <c r="BI40" s="44"/>
+      <c r="BJ40" s="44"/>
+      <c r="BK40" s="44"/>
+      <c r="BL40" s="44"/>
+      <c r="BM40" s="44"/>
+      <c r="BN40" s="44"/>
+      <c r="BO40" s="44"/>
+      <c r="BP40" s="44"/>
+      <c r="BQ40" s="44"/>
+      <c r="BR40" s="44"/>
+      <c r="BS40" s="44"/>
+      <c r="BT40" s="44"/>
+      <c r="BU40" s="44"/>
+      <c r="BV40" s="44"/>
+      <c r="BW40" s="44"/>
+      <c r="BX40" s="44"/>
+      <c r="BY40" s="44"/>
+      <c r="BZ40" s="44"/>
+      <c r="CA40" s="44"/>
+      <c r="CB40" s="44"/>
+      <c r="CC40" s="44"/>
+      <c r="CD40" s="44"/>
+      <c r="CE40" s="44"/>
+      <c r="CF40" s="61"/>
+      <c r="CG40" s="61"/>
+      <c r="CH40" s="61"/>
+      <c r="CI40" s="61"/>
+      <c r="CJ40" s="61"/>
+      <c r="CK40" s="57"/>
+      <c r="CL40" s="57"/>
+      <c r="CM40" s="57"/>
+      <c r="CN40" s="44"/>
+      <c r="CO40" s="61"/>
+      <c r="CP40" s="47"/>
+      <c r="CQ40" s="47"/>
+      <c r="CR40" s="61"/>
+      <c r="CS40" s="61"/>
+      <c r="CT40" s="61"/>
+      <c r="CU40" s="61"/>
+      <c r="CV40" s="61"/>
+      <c r="CW40" s="61"/>
+      <c r="CX40" s="61"/>
+      <c r="CY40" s="37"/>
+      <c r="CZ40" s="37"/>
       <c r="DA40" s="37"/>
       <c r="DB40" s="37"/>
       <c r="DC40" s="37"/>
-      <c r="DD40" s="37"/>
-      <c r="DE40" s="37"/>
-      <c r="DF40" s="37"/>
-      <c r="DG40" s="37"/>
-      <c r="DH40" s="37"/>
-      <c r="DI40" s="37"/>
-      <c r="DJ40" s="37"/>
-      <c r="DK40" s="37"/>
-      <c r="DL40" s="37"/>
-      <c r="DM40" s="37"/>
-      <c r="DN40" s="37"/>
-      <c r="DO40" s="37"/>
-      <c r="DP40" s="37"/>
-      <c r="DQ40" s="37"/>
-      <c r="DR40" s="37"/>
-      <c r="DS40" s="37"/>
-      <c r="DT40" s="37"/>
-      <c r="DU40" s="37"/>
-      <c r="DV40" s="37"/>
-      <c r="DW40" s="37"/>
-      <c r="DX40" s="37"/>
-      <c r="DY40" s="37"/>
-      <c r="DZ40" s="37"/>
-      <c r="EA40" s="37"/>
-      <c r="EB40" s="37"/>
-      <c r="EC40" s="37"/>
-      <c r="ED40" s="37"/>
-      <c r="EE40" s="37"/>
+      <c r="DD40" s="47"/>
+      <c r="DE40" s="47"/>
+      <c r="DF40" s="57"/>
+      <c r="DG40" s="57"/>
+      <c r="DH40" s="47"/>
+      <c r="DI40" s="47"/>
+      <c r="DJ40" s="72"/>
+      <c r="DK40" s="70"/>
+      <c r="DL40" s="70"/>
+      <c r="DM40" s="57"/>
+      <c r="DN40" s="57"/>
+      <c r="DO40" s="69"/>
+      <c r="DP40" s="69"/>
+      <c r="DQ40" s="61"/>
+      <c r="DR40" s="61"/>
+      <c r="DS40" s="61"/>
+      <c r="DT40" s="47"/>
+      <c r="DU40" s="47"/>
+      <c r="DV40" s="47"/>
+      <c r="DW40" s="47"/>
+      <c r="DX40" s="47"/>
+      <c r="DY40" s="47"/>
+      <c r="DZ40" s="47"/>
+      <c r="EA40" s="47"/>
+      <c r="EB40" s="47"/>
+      <c r="EC40" s="47"/>
+      <c r="ED40" s="47"/>
+      <c r="EE40" s="47"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="57">
-        <v>45693.0</v>
-      </c>
-      <c r="B41" s="66" t="s">
+      <c r="A41" s="54">
+        <v>45752.0</v>
+      </c>
+      <c r="B41" s="74" t="s">
         <v>66</v>
       </c>
       <c r="C41" s="37"/>
@@ -6374,29 +6443,29 @@
       <c r="CH41" s="37"/>
       <c r="CI41" s="37"/>
       <c r="CJ41" s="37"/>
-      <c r="CK41" s="37"/>
-      <c r="CL41" s="37"/>
-      <c r="CM41" s="37"/>
-      <c r="CN41" s="37"/>
-      <c r="CO41" s="37"/>
-      <c r="CP41" s="37"/>
-      <c r="CQ41" s="37"/>
-      <c r="CR41" s="37"/>
-      <c r="CS41" s="37"/>
-      <c r="CT41" s="37"/>
+      <c r="CK41" s="61"/>
+      <c r="CL41" s="61"/>
+      <c r="CM41" s="61"/>
+      <c r="CN41" s="44"/>
+      <c r="CO41" s="44"/>
+      <c r="CP41" s="46"/>
+      <c r="CQ41" s="46"/>
+      <c r="CR41" s="58"/>
+      <c r="CS41" s="58"/>
+      <c r="CT41" s="58"/>
       <c r="CU41" s="37"/>
       <c r="CV41" s="37"/>
       <c r="CW41" s="37"/>
       <c r="CX41" s="37"/>
       <c r="CY41" s="37"/>
       <c r="CZ41" s="37"/>
-      <c r="DA41" s="65"/>
-      <c r="DB41" s="65"/>
-      <c r="DC41" s="65"/>
-      <c r="DD41" s="65"/>
-      <c r="DE41" s="65"/>
-      <c r="DF41" s="65"/>
-      <c r="DG41" s="65"/>
+      <c r="DA41" s="37"/>
+      <c r="DB41" s="37"/>
+      <c r="DC41" s="37"/>
+      <c r="DD41" s="37"/>
+      <c r="DE41" s="37"/>
+      <c r="DF41" s="37"/>
+      <c r="DG41" s="37"/>
       <c r="DH41" s="37"/>
       <c r="DI41" s="37"/>
       <c r="DJ41" s="37"/>
@@ -6404,30 +6473,30 @@
       <c r="DL41" s="37"/>
       <c r="DM41" s="37"/>
       <c r="DN41" s="37"/>
-      <c r="DO41" s="37"/>
-      <c r="DP41" s="37"/>
-      <c r="DQ41" s="37"/>
-      <c r="DR41" s="37"/>
-      <c r="DS41" s="37"/>
-      <c r="DT41" s="37"/>
-      <c r="DU41" s="37"/>
-      <c r="DV41" s="37"/>
-      <c r="DW41" s="37"/>
-      <c r="DX41" s="37"/>
-      <c r="DY41" s="37"/>
-      <c r="DZ41" s="37"/>
-      <c r="EA41" s="37"/>
-      <c r="EB41" s="37"/>
-      <c r="EC41" s="37"/>
-      <c r="ED41" s="37"/>
-      <c r="EE41" s="37"/>
+      <c r="DO41" s="82"/>
+      <c r="DP41" s="82"/>
+      <c r="DQ41" s="47"/>
+      <c r="DR41" s="47"/>
+      <c r="DS41" s="47"/>
+      <c r="DT41" s="47"/>
+      <c r="DU41" s="47"/>
+      <c r="DV41" s="47"/>
+      <c r="DW41" s="47"/>
+      <c r="DX41" s="47"/>
+      <c r="DY41" s="47"/>
+      <c r="DZ41" s="47"/>
+      <c r="EA41" s="47"/>
+      <c r="EB41" s="47"/>
+      <c r="EC41" s="47"/>
+      <c r="ED41" s="47"/>
+      <c r="EE41" s="47"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="57">
-        <v>45721.0</v>
-      </c>
-      <c r="B42" s="66" t="s">
+      <c r="A42" s="62" t="s">
         <v>67</v>
+      </c>
+      <c r="B42" s="81" t="s">
+        <v>68</v>
       </c>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -6520,18 +6589,18 @@
       <c r="CM42" s="37"/>
       <c r="CN42" s="37"/>
       <c r="CO42" s="37"/>
-      <c r="CP42" s="37"/>
-      <c r="CQ42" s="37"/>
-      <c r="CR42" s="37"/>
-      <c r="CS42" s="37"/>
-      <c r="CT42" s="37"/>
+      <c r="CP42" s="61"/>
+      <c r="CQ42" s="61"/>
+      <c r="CR42" s="61"/>
+      <c r="CS42" s="61"/>
+      <c r="CT42" s="61"/>
       <c r="CU42" s="37"/>
       <c r="CV42" s="37"/>
-      <c r="CW42" s="37"/>
-      <c r="CX42" s="37"/>
-      <c r="CY42" s="37"/>
-      <c r="CZ42" s="37"/>
-      <c r="DA42" s="37"/>
+      <c r="CW42" s="58"/>
+      <c r="CX42" s="58"/>
+      <c r="CY42" s="58"/>
+      <c r="CZ42" s="58"/>
+      <c r="DA42" s="58"/>
       <c r="DB42" s="37"/>
       <c r="DC42" s="37"/>
       <c r="DD42" s="37"/>
@@ -6545,29 +6614,29 @@
       <c r="DL42" s="37"/>
       <c r="DM42" s="37"/>
       <c r="DN42" s="37"/>
-      <c r="DO42" s="37"/>
-      <c r="DP42" s="37"/>
-      <c r="DQ42" s="37"/>
-      <c r="DR42" s="37"/>
-      <c r="DS42" s="37"/>
-      <c r="DT42" s="37"/>
-      <c r="DU42" s="37"/>
-      <c r="DV42" s="37"/>
-      <c r="DW42" s="37"/>
-      <c r="DX42" s="37"/>
-      <c r="DY42" s="37"/>
-      <c r="DZ42" s="37"/>
-      <c r="EA42" s="37"/>
-      <c r="EB42" s="37"/>
-      <c r="EC42" s="37"/>
-      <c r="ED42" s="37"/>
-      <c r="EE42" s="37"/>
+      <c r="DO42" s="61"/>
+      <c r="DP42" s="61"/>
+      <c r="DQ42" s="61"/>
+      <c r="DR42" s="61"/>
+      <c r="DS42" s="61"/>
+      <c r="DT42" s="61"/>
+      <c r="DU42" s="61"/>
+      <c r="DV42" s="61"/>
+      <c r="DW42" s="61"/>
+      <c r="DX42" s="61"/>
+      <c r="DY42" s="61"/>
+      <c r="DZ42" s="61"/>
+      <c r="EA42" s="61"/>
+      <c r="EB42" s="61"/>
+      <c r="EC42" s="61"/>
+      <c r="ED42" s="61"/>
+      <c r="EE42" s="61"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="61" t="s">
+      <c r="A43" s="54">
+        <v>45663.0</v>
+      </c>
+      <c r="B43" s="64" t="s">
         <v>69</v>
       </c>
       <c r="C43" s="37"/>
@@ -6602,945 +6671,715 @@
       <c r="AF43" s="37"/>
       <c r="AG43" s="37"/>
       <c r="AH43" s="37"/>
-      <c r="AI43" s="37"/>
-      <c r="AJ43" s="37"/>
-      <c r="AK43" s="37"/>
-      <c r="AL43" s="37"/>
-      <c r="AM43" s="37"/>
-      <c r="AN43" s="37"/>
-      <c r="AO43" s="37"/>
-      <c r="AP43" s="37"/>
-      <c r="AQ43" s="37"/>
-      <c r="AR43" s="37"/>
-      <c r="AS43" s="37"/>
-      <c r="AT43" s="37"/>
-      <c r="AU43" s="37"/>
-      <c r="AV43" s="37"/>
-      <c r="AW43" s="37"/>
-      <c r="AX43" s="37"/>
-      <c r="AY43" s="37"/>
-      <c r="AZ43" s="37"/>
-      <c r="BA43" s="37"/>
-      <c r="BB43" s="37"/>
-      <c r="BC43" s="37"/>
-      <c r="BD43" s="37"/>
-      <c r="BE43" s="37"/>
-      <c r="BF43" s="37"/>
-      <c r="BG43" s="37"/>
-      <c r="BH43" s="37"/>
-      <c r="BI43" s="37"/>
-      <c r="BJ43" s="37"/>
-      <c r="BK43" s="37"/>
-      <c r="BL43" s="37"/>
-      <c r="BM43" s="37"/>
-      <c r="BN43" s="37"/>
-      <c r="BO43" s="37"/>
-      <c r="BP43" s="37"/>
-      <c r="BQ43" s="37"/>
-      <c r="BR43" s="37"/>
-      <c r="BS43" s="37"/>
-      <c r="BT43" s="37"/>
-      <c r="BU43" s="37"/>
-      <c r="BV43" s="37"/>
-      <c r="BW43" s="37"/>
-      <c r="BX43" s="37"/>
-      <c r="BY43" s="37"/>
-      <c r="BZ43" s="37"/>
-      <c r="CA43" s="37"/>
-      <c r="CB43" s="37"/>
-      <c r="CC43" s="37"/>
-      <c r="CD43" s="37"/>
-      <c r="CE43" s="37"/>
-      <c r="CF43" s="37"/>
-      <c r="CG43" s="37"/>
-      <c r="CH43" s="37"/>
-      <c r="CI43" s="37"/>
-      <c r="CJ43" s="37"/>
-      <c r="CK43" s="37"/>
-      <c r="CL43" s="37"/>
-      <c r="CM43" s="37"/>
-      <c r="CN43" s="37"/>
-      <c r="CO43" s="37"/>
-      <c r="CP43" s="37"/>
-      <c r="CQ43" s="37"/>
-      <c r="CR43" s="37"/>
-      <c r="CS43" s="37"/>
-      <c r="CT43" s="37"/>
-      <c r="CU43" s="37"/>
-      <c r="CV43" s="37"/>
-      <c r="CW43" s="37"/>
-      <c r="CX43" s="37"/>
-      <c r="CY43" s="37"/>
-      <c r="CZ43" s="37"/>
-      <c r="DA43" s="37"/>
-      <c r="DB43" s="37"/>
-      <c r="DC43" s="37"/>
-      <c r="DD43" s="37"/>
-      <c r="DE43" s="37"/>
-      <c r="DF43" s="37"/>
-      <c r="DG43" s="37"/>
-      <c r="DH43" s="65"/>
-      <c r="DI43" s="65"/>
-      <c r="DJ43" s="65"/>
-      <c r="DK43" s="65"/>
-      <c r="DL43" s="65"/>
-      <c r="DM43" s="65"/>
-      <c r="DN43" s="65"/>
-      <c r="DO43" s="37"/>
-      <c r="DP43" s="37"/>
-      <c r="DQ43" s="37"/>
-      <c r="DR43" s="37"/>
-      <c r="DS43" s="37"/>
-      <c r="DT43" s="37"/>
-      <c r="DU43" s="37"/>
-      <c r="DV43" s="37"/>
-      <c r="DW43" s="37"/>
-      <c r="DX43" s="37"/>
-      <c r="DY43" s="37"/>
-      <c r="DZ43" s="37"/>
-      <c r="EA43" s="37"/>
-      <c r="EB43" s="37"/>
-      <c r="EC43" s="37"/>
-      <c r="ED43" s="37"/>
-      <c r="EE43" s="37"/>
+      <c r="AI43" s="58"/>
+      <c r="AJ43" s="58"/>
+      <c r="AK43" s="58"/>
+      <c r="AL43" s="58"/>
+      <c r="AM43" s="58"/>
+      <c r="AN43" s="58"/>
+      <c r="AO43" s="58"/>
+      <c r="AP43" s="58"/>
+      <c r="AQ43" s="58"/>
+      <c r="AR43" s="58"/>
+      <c r="AS43" s="58"/>
+      <c r="AT43" s="58"/>
+      <c r="AU43" s="58"/>
+      <c r="AV43" s="58"/>
+      <c r="AW43" s="58"/>
+      <c r="AX43" s="58"/>
+      <c r="AY43" s="58"/>
+      <c r="AZ43" s="58"/>
+      <c r="BA43" s="58"/>
+      <c r="BB43" s="58"/>
+      <c r="BC43" s="58"/>
+      <c r="BD43" s="58"/>
+      <c r="BE43" s="58"/>
+      <c r="BF43" s="58"/>
+      <c r="BG43" s="58"/>
+      <c r="BH43" s="58"/>
+      <c r="BI43" s="58"/>
+      <c r="BJ43" s="58"/>
+      <c r="BK43" s="58"/>
+      <c r="BL43" s="58"/>
+      <c r="BM43" s="58"/>
+      <c r="BN43" s="58"/>
+      <c r="BO43" s="58"/>
+      <c r="BP43" s="58"/>
+      <c r="BQ43" s="58"/>
+      <c r="BR43" s="58"/>
+      <c r="BS43" s="58"/>
+      <c r="BT43" s="58"/>
+      <c r="BU43" s="58"/>
+      <c r="BV43" s="58"/>
+      <c r="BW43" s="58"/>
+      <c r="BX43" s="58"/>
+      <c r="BY43" s="58"/>
+      <c r="BZ43" s="58"/>
+      <c r="CA43" s="58"/>
+      <c r="CB43" s="58"/>
+      <c r="CC43" s="58"/>
+      <c r="CD43" s="58"/>
+      <c r="CE43" s="58"/>
+      <c r="CF43" s="58"/>
+      <c r="CG43" s="58"/>
+      <c r="CH43" s="58"/>
+      <c r="CI43" s="58"/>
+      <c r="CJ43" s="58"/>
+      <c r="CK43" s="58"/>
+      <c r="CL43" s="58"/>
+      <c r="CM43" s="58"/>
+      <c r="CN43" s="58"/>
+      <c r="CO43" s="58"/>
+      <c r="CP43" s="58"/>
+      <c r="CQ43" s="58"/>
+      <c r="CR43" s="58"/>
+      <c r="CS43" s="58"/>
+      <c r="CT43" s="58"/>
+      <c r="CU43" s="58"/>
+      <c r="CV43" s="58"/>
+      <c r="CW43" s="47"/>
+      <c r="CX43" s="47"/>
+      <c r="CY43" s="47"/>
+      <c r="CZ43" s="47"/>
+      <c r="DA43" s="47"/>
+      <c r="DB43" s="58"/>
+      <c r="DC43" s="58"/>
+      <c r="DD43" s="58"/>
+      <c r="DE43" s="58"/>
+      <c r="DF43" s="58"/>
+      <c r="DG43" s="58"/>
+      <c r="DH43" s="58"/>
+      <c r="DI43" s="58"/>
+      <c r="DJ43" s="58"/>
+      <c r="DK43" s="58"/>
+      <c r="DL43" s="58"/>
+      <c r="DM43" s="58"/>
+      <c r="DN43" s="58"/>
+      <c r="DO43" s="83"/>
+      <c r="DP43" s="83"/>
+      <c r="DQ43" s="83"/>
+      <c r="DR43" s="83"/>
+      <c r="DS43" s="44"/>
+      <c r="DT43" s="44"/>
+      <c r="DU43" s="44"/>
+      <c r="DV43" s="47"/>
+      <c r="DW43" s="47"/>
+      <c r="DX43" s="47"/>
+      <c r="DY43" s="47"/>
+      <c r="DZ43" s="47"/>
+      <c r="EA43" s="44"/>
+      <c r="EB43" s="44"/>
+      <c r="EC43" s="44"/>
+      <c r="ED43" s="44"/>
+      <c r="EE43" s="44"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="57">
-        <v>45663.0</v>
-      </c>
-      <c r="B44" s="66" t="s">
+      <c r="A44" s="54">
+        <v>45694.0</v>
+      </c>
+      <c r="B44" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
-      <c r="AA44" s="37"/>
-      <c r="AB44" s="37"/>
-      <c r="AC44" s="37"/>
-      <c r="AD44" s="37"/>
-      <c r="AE44" s="37"/>
-      <c r="AF44" s="37"/>
-      <c r="AG44" s="37"/>
-      <c r="AH44" s="37"/>
-      <c r="AI44" s="37"/>
-      <c r="AJ44" s="37"/>
-      <c r="AK44" s="37"/>
-      <c r="AL44" s="37"/>
-      <c r="AM44" s="37"/>
-      <c r="AN44" s="37"/>
-      <c r="AO44" s="37"/>
-      <c r="AP44" s="37"/>
-      <c r="AQ44" s="37"/>
-      <c r="AR44" s="37"/>
-      <c r="AS44" s="37"/>
-      <c r="AT44" s="37"/>
-      <c r="AU44" s="37"/>
-      <c r="AV44" s="37"/>
-      <c r="AW44" s="37"/>
-      <c r="AX44" s="37"/>
-      <c r="AY44" s="37"/>
-      <c r="AZ44" s="37"/>
-      <c r="BA44" s="37"/>
-      <c r="BB44" s="37"/>
-      <c r="BC44" s="37"/>
-      <c r="BD44" s="37"/>
-      <c r="BE44" s="37"/>
-      <c r="BF44" s="37"/>
-      <c r="BG44" s="37"/>
-      <c r="BH44" s="37"/>
-      <c r="BI44" s="37"/>
-      <c r="BJ44" s="37"/>
-      <c r="BK44" s="37"/>
-      <c r="BL44" s="37"/>
-      <c r="BM44" s="37"/>
-      <c r="BN44" s="37"/>
-      <c r="BO44" s="37"/>
-      <c r="BP44" s="37"/>
-      <c r="BQ44" s="37"/>
-      <c r="BR44" s="37"/>
-      <c r="BS44" s="37"/>
-      <c r="BT44" s="37"/>
-      <c r="BU44" s="37"/>
-      <c r="BV44" s="37"/>
-      <c r="BW44" s="37"/>
-      <c r="BX44" s="37"/>
-      <c r="BY44" s="37"/>
-      <c r="BZ44" s="37"/>
-      <c r="CA44" s="37"/>
-      <c r="CB44" s="37"/>
-      <c r="CC44" s="37"/>
-      <c r="CD44" s="37"/>
-      <c r="CE44" s="37"/>
-      <c r="CF44" s="37"/>
-      <c r="CG44" s="37"/>
-      <c r="CH44" s="37"/>
-      <c r="CI44" s="37"/>
-      <c r="CJ44" s="37"/>
-      <c r="CK44" s="37"/>
-      <c r="CL44" s="37"/>
-      <c r="CM44" s="37"/>
-      <c r="CN44" s="37"/>
-      <c r="CO44" s="37"/>
-      <c r="CP44" s="37"/>
-      <c r="CQ44" s="37"/>
-      <c r="CR44" s="37"/>
-      <c r="CS44" s="37"/>
-      <c r="CT44" s="37"/>
-      <c r="CU44" s="37"/>
-      <c r="CV44" s="37"/>
-      <c r="CW44" s="37"/>
-      <c r="CX44" s="37"/>
-      <c r="CY44" s="37"/>
-      <c r="CZ44" s="37"/>
-      <c r="DA44" s="37"/>
-      <c r="DB44" s="37"/>
-      <c r="DC44" s="37"/>
-      <c r="DD44" s="37"/>
-      <c r="DE44" s="37"/>
-      <c r="DF44" s="37"/>
-      <c r="DG44" s="37"/>
-      <c r="DH44" s="37"/>
-      <c r="DI44" s="37"/>
-      <c r="DJ44" s="37"/>
-      <c r="DK44" s="37"/>
-      <c r="DL44" s="37"/>
-      <c r="DM44" s="37"/>
-      <c r="DN44" s="37"/>
-      <c r="DO44" s="33"/>
-      <c r="DP44" s="33"/>
-      <c r="DQ44" s="33"/>
-      <c r="DR44" s="33"/>
-      <c r="DS44" s="33"/>
-      <c r="DT44" s="33"/>
-      <c r="DU44" s="33"/>
-      <c r="DV44" s="37"/>
-      <c r="DW44" s="37"/>
-      <c r="DX44" s="37"/>
-      <c r="DY44" s="37"/>
-      <c r="DZ44" s="37"/>
-      <c r="EA44" s="37"/>
-      <c r="EB44" s="37"/>
-      <c r="EC44" s="37"/>
-      <c r="ED44" s="37"/>
-      <c r="EE44" s="37"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="47"/>
+      <c r="X44" s="47"/>
+      <c r="Y44" s="47"/>
+      <c r="Z44" s="47"/>
+      <c r="AA44" s="47"/>
+      <c r="AB44" s="47"/>
+      <c r="AC44" s="47"/>
+      <c r="AD44" s="47"/>
+      <c r="AE44" s="47"/>
+      <c r="AF44" s="47"/>
+      <c r="AG44" s="47"/>
+      <c r="AH44" s="47"/>
+      <c r="AI44" s="47"/>
+      <c r="AJ44" s="47"/>
+      <c r="AK44" s="47"/>
+      <c r="AL44" s="47"/>
+      <c r="AM44" s="47"/>
+      <c r="AN44" s="47"/>
+      <c r="AO44" s="47"/>
+      <c r="AP44" s="47"/>
+      <c r="AQ44" s="47"/>
+      <c r="AR44" s="47"/>
+      <c r="AS44" s="47"/>
+      <c r="AT44" s="47"/>
+      <c r="AU44" s="47"/>
+      <c r="AV44" s="47"/>
+      <c r="AW44" s="47"/>
+      <c r="AX44" s="47"/>
+      <c r="AY44" s="47"/>
+      <c r="AZ44" s="47"/>
+      <c r="BA44" s="47"/>
+      <c r="BB44" s="47"/>
+      <c r="BC44" s="47"/>
+      <c r="BD44" s="47"/>
+      <c r="BE44" s="47"/>
+      <c r="BF44" s="47"/>
+      <c r="BG44" s="47"/>
+      <c r="BH44" s="47"/>
+      <c r="BI44" s="47"/>
+      <c r="BJ44" s="47"/>
+      <c r="BK44" s="47"/>
+      <c r="BL44" s="47"/>
+      <c r="BM44" s="47"/>
+      <c r="BN44" s="47"/>
+      <c r="BO44" s="47"/>
+      <c r="BP44" s="47"/>
+      <c r="BQ44" s="47"/>
+      <c r="BR44" s="47"/>
+      <c r="BS44" s="47"/>
+      <c r="BT44" s="47"/>
+      <c r="BU44" s="47"/>
+      <c r="BV44" s="47"/>
+      <c r="BW44" s="47"/>
+      <c r="BX44" s="47"/>
+      <c r="BY44" s="47"/>
+      <c r="BZ44" s="47"/>
+      <c r="CA44" s="47"/>
+      <c r="CB44" s="47"/>
+      <c r="CC44" s="47"/>
+      <c r="CD44" s="47"/>
+      <c r="CE44" s="47"/>
+      <c r="CF44" s="47"/>
+      <c r="CG44" s="47"/>
+      <c r="CH44" s="47"/>
+      <c r="CI44" s="47"/>
+      <c r="CJ44" s="47"/>
+      <c r="CK44" s="47"/>
+      <c r="CL44" s="47"/>
+      <c r="CM44" s="47"/>
+      <c r="CN44" s="47"/>
+      <c r="CO44" s="47"/>
+      <c r="CP44" s="47"/>
+      <c r="CQ44" s="47"/>
+      <c r="CR44" s="47"/>
+      <c r="CS44" s="47"/>
+      <c r="CT44" s="47"/>
+      <c r="CU44" s="47"/>
+      <c r="CV44" s="47"/>
+      <c r="CW44" s="47"/>
+      <c r="CX44" s="47"/>
+      <c r="CY44" s="47"/>
+      <c r="CZ44" s="47"/>
+      <c r="DA44" s="47"/>
+      <c r="DB44" s="47"/>
+      <c r="DC44" s="47"/>
+      <c r="DD44" s="47"/>
+      <c r="DE44" s="47"/>
+      <c r="DF44" s="47"/>
+      <c r="DG44" s="47"/>
+      <c r="DH44" s="47"/>
+      <c r="DI44" s="47"/>
+      <c r="DJ44" s="47"/>
+      <c r="DK44" s="47"/>
+      <c r="DL44" s="47"/>
+      <c r="DM44" s="47"/>
+      <c r="DN44" s="47"/>
+      <c r="DO44" s="44"/>
+      <c r="DP44" s="44"/>
+      <c r="DQ44" s="83"/>
+      <c r="DR44" s="83"/>
+      <c r="DS44" s="83"/>
+      <c r="DT44" s="44"/>
+      <c r="DU44" s="44"/>
+      <c r="DV44" s="44"/>
+      <c r="DW44" s="47"/>
+      <c r="DX44" s="47"/>
+      <c r="DY44" s="47"/>
+      <c r="DZ44" s="47"/>
+      <c r="EA44" s="44"/>
+      <c r="EB44" s="44"/>
+      <c r="EC44" s="44"/>
+      <c r="ED44" s="44"/>
+      <c r="EE44" s="44"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="57">
-        <v>45694.0</v>
-      </c>
-      <c r="B45" s="66" t="s">
+      <c r="A45" s="54">
+        <v>45722.0</v>
+      </c>
+      <c r="B45" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
-      <c r="AA45" s="37"/>
-      <c r="AB45" s="37"/>
-      <c r="AC45" s="37"/>
-      <c r="AD45" s="37"/>
-      <c r="AE45" s="37"/>
-      <c r="AF45" s="37"/>
-      <c r="AG45" s="37"/>
-      <c r="AH45" s="37"/>
-      <c r="AI45" s="37"/>
-      <c r="AJ45" s="37"/>
-      <c r="AK45" s="37"/>
-      <c r="AL45" s="37"/>
-      <c r="AM45" s="37"/>
-      <c r="AN45" s="37"/>
-      <c r="AO45" s="37"/>
-      <c r="AP45" s="37"/>
-      <c r="AQ45" s="37"/>
-      <c r="AR45" s="37"/>
-      <c r="AS45" s="37"/>
-      <c r="AT45" s="37"/>
-      <c r="AU45" s="37"/>
-      <c r="AV45" s="37"/>
-      <c r="AW45" s="37"/>
-      <c r="AX45" s="37"/>
-      <c r="AY45" s="37"/>
-      <c r="AZ45" s="37"/>
-      <c r="BA45" s="37"/>
-      <c r="BB45" s="37"/>
-      <c r="BC45" s="37"/>
-      <c r="BD45" s="37"/>
-      <c r="BE45" s="37"/>
-      <c r="BF45" s="37"/>
-      <c r="BG45" s="37"/>
-      <c r="BH45" s="37"/>
-      <c r="BI45" s="37"/>
-      <c r="BJ45" s="37"/>
-      <c r="BK45" s="37"/>
-      <c r="BL45" s="37"/>
-      <c r="BM45" s="37"/>
-      <c r="BN45" s="37"/>
-      <c r="BO45" s="37"/>
-      <c r="BP45" s="37"/>
-      <c r="BQ45" s="37"/>
-      <c r="BR45" s="37"/>
-      <c r="BS45" s="37"/>
-      <c r="BT45" s="37"/>
-      <c r="BU45" s="37"/>
-      <c r="BV45" s="37"/>
-      <c r="BW45" s="37"/>
-      <c r="BX45" s="37"/>
-      <c r="BY45" s="37"/>
-      <c r="BZ45" s="37"/>
-      <c r="CA45" s="37"/>
-      <c r="CB45" s="37"/>
-      <c r="CC45" s="37"/>
-      <c r="CD45" s="37"/>
-      <c r="CE45" s="37"/>
-      <c r="CF45" s="37"/>
-      <c r="CG45" s="37"/>
-      <c r="CH45" s="37"/>
-      <c r="CI45" s="37"/>
-      <c r="CJ45" s="37"/>
-      <c r="CK45" s="37"/>
-      <c r="CL45" s="37"/>
-      <c r="CM45" s="37"/>
-      <c r="CN45" s="37"/>
-      <c r="CO45" s="37"/>
-      <c r="CP45" s="37"/>
-      <c r="CQ45" s="37"/>
-      <c r="CR45" s="37"/>
-      <c r="CS45" s="37"/>
-      <c r="CT45" s="37"/>
-      <c r="CU45" s="37"/>
-      <c r="CV45" s="37"/>
-      <c r="CW45" s="37"/>
-      <c r="CX45" s="37"/>
-      <c r="CY45" s="37"/>
-      <c r="CZ45" s="37"/>
-      <c r="DA45" s="37"/>
-      <c r="DB45" s="37"/>
-      <c r="DC45" s="37"/>
-      <c r="DD45" s="37"/>
-      <c r="DE45" s="37"/>
-      <c r="DF45" s="37"/>
-      <c r="DG45" s="37"/>
-      <c r="DH45" s="37"/>
-      <c r="DI45" s="37"/>
-      <c r="DJ45" s="37"/>
-      <c r="DK45" s="37"/>
-      <c r="DL45" s="37"/>
-      <c r="DM45" s="37"/>
-      <c r="DN45" s="37"/>
-      <c r="DO45" s="33"/>
-      <c r="DP45" s="33"/>
-      <c r="DQ45" s="33"/>
-      <c r="DR45" s="33"/>
-      <c r="DS45" s="33"/>
-      <c r="DT45" s="33"/>
-      <c r="DU45" s="33"/>
-      <c r="DV45" s="33"/>
-      <c r="DW45" s="33"/>
-      <c r="DX45" s="33"/>
-      <c r="DY45" s="33"/>
-      <c r="DZ45" s="33"/>
-      <c r="EA45" s="33"/>
-      <c r="EB45" s="33"/>
-      <c r="EC45" s="37"/>
-      <c r="ED45" s="37"/>
-      <c r="EE45" s="37"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="47"/>
+      <c r="X45" s="47"/>
+      <c r="Y45" s="47"/>
+      <c r="Z45" s="47"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
+      <c r="AC45" s="47"/>
+      <c r="AD45" s="47"/>
+      <c r="AE45" s="47"/>
+      <c r="AF45" s="47"/>
+      <c r="AG45" s="47"/>
+      <c r="AH45" s="47"/>
+      <c r="AI45" s="47"/>
+      <c r="AJ45" s="47"/>
+      <c r="AK45" s="47"/>
+      <c r="AL45" s="47"/>
+      <c r="AM45" s="47"/>
+      <c r="AN45" s="47"/>
+      <c r="AO45" s="47"/>
+      <c r="AP45" s="47"/>
+      <c r="AQ45" s="47"/>
+      <c r="AR45" s="47"/>
+      <c r="AS45" s="47"/>
+      <c r="AT45" s="47"/>
+      <c r="AU45" s="47"/>
+      <c r="AV45" s="47"/>
+      <c r="AW45" s="47"/>
+      <c r="AX45" s="47"/>
+      <c r="AY45" s="47"/>
+      <c r="AZ45" s="47"/>
+      <c r="BA45" s="47"/>
+      <c r="BB45" s="47"/>
+      <c r="BC45" s="47"/>
+      <c r="BD45" s="47"/>
+      <c r="BE45" s="47"/>
+      <c r="BF45" s="47"/>
+      <c r="BG45" s="47"/>
+      <c r="BH45" s="47"/>
+      <c r="BI45" s="47"/>
+      <c r="BJ45" s="47"/>
+      <c r="BK45" s="47"/>
+      <c r="BL45" s="47"/>
+      <c r="BM45" s="47"/>
+      <c r="BN45" s="47"/>
+      <c r="BO45" s="47"/>
+      <c r="BP45" s="47"/>
+      <c r="BQ45" s="47"/>
+      <c r="BR45" s="47"/>
+      <c r="BS45" s="47"/>
+      <c r="BT45" s="47"/>
+      <c r="BU45" s="47"/>
+      <c r="BV45" s="47"/>
+      <c r="BW45" s="47"/>
+      <c r="BX45" s="47"/>
+      <c r="BY45" s="47"/>
+      <c r="BZ45" s="47"/>
+      <c r="CA45" s="47"/>
+      <c r="CB45" s="47"/>
+      <c r="CC45" s="47"/>
+      <c r="CD45" s="47"/>
+      <c r="CE45" s="47"/>
+      <c r="CF45" s="47"/>
+      <c r="CG45" s="47"/>
+      <c r="CH45" s="47"/>
+      <c r="CI45" s="47"/>
+      <c r="CJ45" s="47"/>
+      <c r="CK45" s="47"/>
+      <c r="CL45" s="47"/>
+      <c r="CM45" s="47"/>
+      <c r="CN45" s="47"/>
+      <c r="CO45" s="47"/>
+      <c r="CP45" s="47"/>
+      <c r="CQ45" s="47"/>
+      <c r="CR45" s="47"/>
+      <c r="CS45" s="47"/>
+      <c r="CT45" s="47"/>
+      <c r="CU45" s="47"/>
+      <c r="CV45" s="47"/>
+      <c r="CW45" s="47"/>
+      <c r="CX45" s="47"/>
+      <c r="CY45" s="47"/>
+      <c r="CZ45" s="47"/>
+      <c r="DA45" s="47"/>
+      <c r="DB45" s="47"/>
+      <c r="DC45" s="47"/>
+      <c r="DD45" s="47"/>
+      <c r="DE45" s="47"/>
+      <c r="DF45" s="47"/>
+      <c r="DG45" s="47"/>
+      <c r="DH45" s="47"/>
+      <c r="DI45" s="47"/>
+      <c r="DJ45" s="47"/>
+      <c r="DK45" s="47"/>
+      <c r="DL45" s="47"/>
+      <c r="DM45" s="47"/>
+      <c r="DN45" s="47"/>
+      <c r="DO45" s="44"/>
+      <c r="DP45" s="44"/>
+      <c r="DQ45" s="44"/>
+      <c r="DR45" s="44"/>
+      <c r="DS45" s="44"/>
+      <c r="DT45" s="44"/>
+      <c r="DU45" s="44"/>
+      <c r="DV45" s="44"/>
+      <c r="DW45" s="83"/>
+      <c r="DX45" s="83"/>
+      <c r="DY45" s="83"/>
+      <c r="DZ45" s="44"/>
+      <c r="EA45" s="44"/>
+      <c r="EB45" s="44"/>
+      <c r="EC45" s="44"/>
+      <c r="ED45" s="44"/>
+      <c r="EE45" s="44"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="57">
-        <v>45722.0</v>
-      </c>
-      <c r="B46" s="66" t="s">
+      <c r="A46" s="54">
+        <v>45753.0</v>
+      </c>
+      <c r="B46" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
-      <c r="AA46" s="37"/>
-      <c r="AB46" s="37"/>
-      <c r="AC46" s="37"/>
-      <c r="AD46" s="37"/>
-      <c r="AE46" s="37"/>
-      <c r="AF46" s="37"/>
-      <c r="AG46" s="37"/>
-      <c r="AH46" s="37"/>
-      <c r="AI46" s="37"/>
-      <c r="AJ46" s="37"/>
-      <c r="AK46" s="37"/>
-      <c r="AL46" s="37"/>
-      <c r="AM46" s="37"/>
-      <c r="AN46" s="37"/>
-      <c r="AO46" s="37"/>
-      <c r="AP46" s="37"/>
-      <c r="AQ46" s="37"/>
-      <c r="AR46" s="37"/>
-      <c r="AS46" s="37"/>
-      <c r="AT46" s="37"/>
-      <c r="AU46" s="37"/>
-      <c r="AV46" s="37"/>
-      <c r="AW46" s="37"/>
-      <c r="AX46" s="37"/>
-      <c r="AY46" s="37"/>
-      <c r="AZ46" s="37"/>
-      <c r="BA46" s="37"/>
-      <c r="BB46" s="37"/>
-      <c r="BC46" s="37"/>
-      <c r="BD46" s="37"/>
-      <c r="BE46" s="37"/>
-      <c r="BF46" s="37"/>
-      <c r="BG46" s="37"/>
-      <c r="BH46" s="37"/>
-      <c r="BI46" s="37"/>
-      <c r="BJ46" s="37"/>
-      <c r="BK46" s="37"/>
-      <c r="BL46" s="37"/>
-      <c r="BM46" s="37"/>
-      <c r="BN46" s="37"/>
-      <c r="BO46" s="37"/>
-      <c r="BP46" s="37"/>
-      <c r="BQ46" s="37"/>
-      <c r="BR46" s="37"/>
-      <c r="BS46" s="37"/>
-      <c r="BT46" s="37"/>
-      <c r="BU46" s="37"/>
-      <c r="BV46" s="37"/>
-      <c r="BW46" s="37"/>
-      <c r="BX46" s="37"/>
-      <c r="BY46" s="37"/>
-      <c r="BZ46" s="37"/>
-      <c r="CA46" s="37"/>
-      <c r="CB46" s="37"/>
-      <c r="CC46" s="37"/>
-      <c r="CD46" s="37"/>
-      <c r="CE46" s="37"/>
-      <c r="CF46" s="37"/>
-      <c r="CG46" s="37"/>
-      <c r="CH46" s="37"/>
-      <c r="CI46" s="37"/>
-      <c r="CJ46" s="37"/>
-      <c r="CK46" s="37"/>
-      <c r="CL46" s="37"/>
-      <c r="CM46" s="37"/>
-      <c r="CN46" s="37"/>
-      <c r="CO46" s="37"/>
-      <c r="CP46" s="37"/>
-      <c r="CQ46" s="37"/>
-      <c r="CR46" s="37"/>
-      <c r="CS46" s="37"/>
-      <c r="CT46" s="37"/>
-      <c r="CU46" s="37"/>
-      <c r="CV46" s="37"/>
-      <c r="CW46" s="37"/>
-      <c r="CX46" s="37"/>
-      <c r="CY46" s="37"/>
-      <c r="CZ46" s="37"/>
-      <c r="DA46" s="37"/>
-      <c r="DB46" s="37"/>
-      <c r="DC46" s="37"/>
-      <c r="DD46" s="37"/>
-      <c r="DE46" s="37"/>
-      <c r="DF46" s="37"/>
-      <c r="DG46" s="37"/>
-      <c r="DH46" s="37"/>
-      <c r="DI46" s="37"/>
-      <c r="DJ46" s="37"/>
-      <c r="DK46" s="37"/>
-      <c r="DL46" s="37"/>
-      <c r="DM46" s="37"/>
-      <c r="DN46" s="37"/>
-      <c r="DO46" s="37"/>
-      <c r="DP46" s="37"/>
-      <c r="DQ46" s="37"/>
-      <c r="DR46" s="37"/>
-      <c r="DS46" s="37"/>
-      <c r="DT46" s="37"/>
-      <c r="DU46" s="37"/>
-      <c r="DV46" s="33"/>
-      <c r="DW46" s="33"/>
-      <c r="DX46" s="33"/>
-      <c r="DY46" s="33"/>
-      <c r="DZ46" s="33"/>
-      <c r="EA46" s="33"/>
-      <c r="EB46" s="33"/>
-      <c r="EC46" s="37"/>
-      <c r="ED46" s="37"/>
-      <c r="EE46" s="37"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="85"/>
+      <c r="W46" s="85"/>
+      <c r="X46" s="85"/>
+      <c r="Y46" s="47"/>
+      <c r="Z46" s="47"/>
+      <c r="AA46" s="47"/>
+      <c r="AB46" s="47"/>
+      <c r="AC46" s="47"/>
+      <c r="AD46" s="47"/>
+      <c r="AE46" s="47"/>
+      <c r="AF46" s="47"/>
+      <c r="AG46" s="47"/>
+      <c r="AH46" s="47"/>
+      <c r="AI46" s="47"/>
+      <c r="AJ46" s="47"/>
+      <c r="AK46" s="47"/>
+      <c r="AL46" s="47"/>
+      <c r="AM46" s="47"/>
+      <c r="AN46" s="47"/>
+      <c r="AO46" s="47"/>
+      <c r="AP46" s="47"/>
+      <c r="AQ46" s="47"/>
+      <c r="AR46" s="47"/>
+      <c r="AS46" s="47"/>
+      <c r="AT46" s="47"/>
+      <c r="AU46" s="47"/>
+      <c r="AV46" s="47"/>
+      <c r="AW46" s="47"/>
+      <c r="AX46" s="47"/>
+      <c r="AY46" s="47"/>
+      <c r="AZ46" s="47"/>
+      <c r="BA46" s="47"/>
+      <c r="BB46" s="47"/>
+      <c r="BC46" s="47"/>
+      <c r="BD46" s="47"/>
+      <c r="BE46" s="47"/>
+      <c r="BF46" s="47"/>
+      <c r="BG46" s="47"/>
+      <c r="BH46" s="47"/>
+      <c r="BI46" s="47"/>
+      <c r="BJ46" s="47"/>
+      <c r="BK46" s="47"/>
+      <c r="BL46" s="47"/>
+      <c r="BM46" s="47"/>
+      <c r="BN46" s="47"/>
+      <c r="BO46" s="47"/>
+      <c r="BP46" s="47"/>
+      <c r="BQ46" s="47"/>
+      <c r="BR46" s="47"/>
+      <c r="BS46" s="47"/>
+      <c r="BT46" s="47"/>
+      <c r="BU46" s="47"/>
+      <c r="BV46" s="47"/>
+      <c r="BW46" s="47"/>
+      <c r="BX46" s="47"/>
+      <c r="BY46" s="47"/>
+      <c r="BZ46" s="47"/>
+      <c r="CA46" s="47"/>
+      <c r="CB46" s="47"/>
+      <c r="CC46" s="47"/>
+      <c r="CD46" s="47"/>
+      <c r="CE46" s="47"/>
+      <c r="CF46" s="47"/>
+      <c r="CG46" s="47"/>
+      <c r="CH46" s="47"/>
+      <c r="CI46" s="47"/>
+      <c r="CJ46" s="47"/>
+      <c r="CK46" s="47"/>
+      <c r="CL46" s="47"/>
+      <c r="CM46" s="47"/>
+      <c r="CN46" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="CO46" s="47"/>
+      <c r="CP46" s="47"/>
+      <c r="CQ46" s="47"/>
+      <c r="CR46" s="47"/>
+      <c r="CS46" s="47"/>
+      <c r="CT46" s="47"/>
+      <c r="CU46" s="47"/>
+      <c r="CV46" s="47"/>
+      <c r="CW46" s="47"/>
+      <c r="CX46" s="47"/>
+      <c r="CY46" s="47"/>
+      <c r="CZ46" s="47"/>
+      <c r="DA46" s="47"/>
+      <c r="DB46" s="47"/>
+      <c r="DC46" s="47"/>
+      <c r="DD46" s="47"/>
+      <c r="DE46" s="47"/>
+      <c r="DF46" s="47"/>
+      <c r="DG46" s="47"/>
+      <c r="DH46" s="47"/>
+      <c r="DI46" s="47"/>
+      <c r="DJ46" s="47"/>
+      <c r="DK46" s="47"/>
+      <c r="DL46" s="47"/>
+      <c r="DM46" s="47"/>
+      <c r="DN46" s="47"/>
+      <c r="DO46" s="44"/>
+      <c r="DP46" s="44"/>
+      <c r="DQ46" s="44"/>
+      <c r="DR46" s="44"/>
+      <c r="DS46" s="44"/>
+      <c r="DT46" s="44"/>
+      <c r="DU46" s="44"/>
+      <c r="DV46" s="44"/>
+      <c r="DW46" s="44"/>
+      <c r="DX46" s="83"/>
+      <c r="DY46" s="83"/>
+      <c r="DZ46" s="83"/>
+      <c r="EA46" s="44"/>
+      <c r="EB46" s="44"/>
+      <c r="EC46" s="44"/>
+      <c r="ED46" s="44"/>
+      <c r="EE46" s="44"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="57">
-        <v>45753.0</v>
-      </c>
-      <c r="B47" s="66" t="s">
+      <c r="A47" s="54">
+        <v>45783.0</v>
+      </c>
+      <c r="B47" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="88"/>
+      <c r="W47" s="88"/>
+      <c r="X47" s="88"/>
+      <c r="Y47" s="47"/>
+      <c r="Z47" s="47"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="47"/>
+      <c r="AD47" s="47"/>
+      <c r="AE47" s="47"/>
+      <c r="AF47" s="47"/>
+      <c r="AG47" s="47"/>
+      <c r="AH47" s="47"/>
+      <c r="AI47" s="47"/>
+      <c r="AJ47" s="47"/>
+      <c r="AK47" s="47"/>
+      <c r="AL47" s="47"/>
+      <c r="AM47" s="47"/>
+      <c r="AN47" s="47"/>
+      <c r="AO47" s="47"/>
+      <c r="AP47" s="47"/>
+      <c r="AQ47" s="47"/>
+      <c r="AR47" s="47"/>
+      <c r="AS47" s="47"/>
+      <c r="AT47" s="47"/>
+      <c r="AU47" s="47"/>
+      <c r="AV47" s="47"/>
+      <c r="AW47" s="47"/>
+      <c r="AX47" s="47"/>
+      <c r="AY47" s="47"/>
+      <c r="AZ47" s="47"/>
+      <c r="BA47" s="47"/>
+      <c r="BB47" s="47"/>
+      <c r="BC47" s="47"/>
+      <c r="BD47" s="47"/>
+      <c r="BE47" s="47"/>
+      <c r="BF47" s="47"/>
+      <c r="BG47" s="47"/>
+      <c r="BH47" s="47"/>
+      <c r="BI47" s="47"/>
+      <c r="BJ47" s="47"/>
+      <c r="BK47" s="47"/>
+      <c r="BL47" s="47"/>
+      <c r="BM47" s="47"/>
+      <c r="BN47" s="47"/>
+      <c r="BO47" s="47"/>
+      <c r="BP47" s="47"/>
+      <c r="BQ47" s="47"/>
+      <c r="BR47" s="47"/>
+      <c r="BS47" s="47"/>
+      <c r="BT47" s="47"/>
+      <c r="BU47" s="47"/>
+      <c r="BV47" s="47"/>
+      <c r="BW47" s="47"/>
+      <c r="BX47" s="47"/>
+      <c r="BY47" s="47"/>
+      <c r="BZ47" s="47"/>
+      <c r="CA47" s="47"/>
+      <c r="CB47" s="47"/>
+      <c r="CC47" s="47"/>
+      <c r="CD47" s="47"/>
+      <c r="CE47" s="47"/>
+      <c r="CF47" s="47"/>
+      <c r="CG47" s="47"/>
+      <c r="CH47" s="47"/>
+      <c r="CI47" s="47"/>
+      <c r="CJ47" s="47"/>
+      <c r="CK47" s="47"/>
+      <c r="CL47" s="47"/>
+      <c r="CM47" s="47"/>
+      <c r="CN47" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="37"/>
-      <c r="AA47" s="37"/>
-      <c r="AB47" s="37"/>
-      <c r="AC47" s="37"/>
-      <c r="AD47" s="37"/>
-      <c r="AE47" s="37"/>
-      <c r="AF47" s="37"/>
-      <c r="AG47" s="37"/>
-      <c r="AH47" s="37"/>
-      <c r="AI47" s="37"/>
-      <c r="AJ47" s="37"/>
-      <c r="AK47" s="37"/>
-      <c r="AL47" s="37"/>
-      <c r="AM47" s="37"/>
-      <c r="AN47" s="37"/>
-      <c r="AO47" s="37"/>
-      <c r="AP47" s="37"/>
-      <c r="AQ47" s="37"/>
-      <c r="AR47" s="37"/>
-      <c r="AS47" s="37"/>
-      <c r="AT47" s="37"/>
-      <c r="AU47" s="37"/>
-      <c r="AV47" s="37"/>
-      <c r="AW47" s="37"/>
-      <c r="AX47" s="37"/>
-      <c r="AY47" s="37"/>
-      <c r="AZ47" s="37"/>
-      <c r="BA47" s="37"/>
-      <c r="BB47" s="37"/>
-      <c r="BC47" s="37"/>
-      <c r="BD47" s="37"/>
-      <c r="BE47" s="37"/>
-      <c r="BF47" s="37"/>
-      <c r="BG47" s="37"/>
-      <c r="BH47" s="37"/>
-      <c r="BI47" s="37"/>
-      <c r="BJ47" s="37"/>
-      <c r="BK47" s="37"/>
-      <c r="BL47" s="37"/>
-      <c r="BM47" s="37"/>
-      <c r="BN47" s="37"/>
-      <c r="BO47" s="37"/>
-      <c r="BP47" s="37"/>
-      <c r="BQ47" s="37"/>
-      <c r="BR47" s="37"/>
-      <c r="BS47" s="37"/>
-      <c r="BT47" s="37"/>
-      <c r="BU47" s="37"/>
-      <c r="BV47" s="37"/>
-      <c r="BW47" s="37"/>
-      <c r="BX47" s="37"/>
-      <c r="BY47" s="37"/>
-      <c r="BZ47" s="37"/>
-      <c r="CA47" s="37"/>
-      <c r="CB47" s="37"/>
-      <c r="CC47" s="37"/>
-      <c r="CD47" s="37"/>
-      <c r="CE47" s="37"/>
-      <c r="CF47" s="37"/>
-      <c r="CG47" s="37"/>
-      <c r="CH47" s="37"/>
-      <c r="CI47" s="37"/>
-      <c r="CJ47" s="37"/>
-      <c r="CK47" s="37"/>
-      <c r="CL47" s="37"/>
-      <c r="CM47" s="37"/>
-      <c r="CN47" s="37"/>
-      <c r="CO47" s="37"/>
-      <c r="CP47" s="37"/>
-      <c r="CQ47" s="37"/>
-      <c r="CR47" s="37"/>
-      <c r="CS47" s="37"/>
-      <c r="CT47" s="37"/>
-      <c r="CU47" s="37"/>
-      <c r="CV47" s="37"/>
-      <c r="CW47" s="37"/>
-      <c r="CX47" s="37"/>
-      <c r="CY47" s="37"/>
-      <c r="CZ47" s="37"/>
-      <c r="DA47" s="37"/>
-      <c r="DB47" s="37"/>
-      <c r="DC47" s="37"/>
-      <c r="DD47" s="37"/>
-      <c r="DE47" s="37"/>
-      <c r="DF47" s="37"/>
-      <c r="DG47" s="37"/>
-      <c r="DH47" s="37"/>
-      <c r="DI47" s="37"/>
-      <c r="DJ47" s="37"/>
-      <c r="DK47" s="37"/>
-      <c r="DL47" s="37"/>
-      <c r="DM47" s="37"/>
-      <c r="DN47" s="37"/>
-      <c r="DO47" s="37"/>
-      <c r="DP47" s="37"/>
-      <c r="DQ47" s="37"/>
-      <c r="DR47" s="37"/>
-      <c r="DS47" s="37"/>
-      <c r="DT47" s="37"/>
-      <c r="DU47" s="37"/>
-      <c r="DV47" s="37"/>
-      <c r="DW47" s="37"/>
-      <c r="DX47" s="37"/>
-      <c r="DY47" s="37"/>
-      <c r="DZ47" s="37"/>
-      <c r="EA47" s="37"/>
-      <c r="EB47" s="37"/>
-      <c r="EC47" s="33"/>
-      <c r="ED47" s="33"/>
-      <c r="EE47" s="33"/>
+      <c r="CO47" s="47"/>
+      <c r="CP47" s="47"/>
+      <c r="CQ47" s="47"/>
+      <c r="CR47" s="47"/>
+      <c r="CS47" s="47"/>
+      <c r="CT47" s="47"/>
+      <c r="CU47" s="47"/>
+      <c r="CV47" s="47"/>
+      <c r="CW47" s="47"/>
+      <c r="CX47" s="47"/>
+      <c r="CY47" s="47"/>
+      <c r="CZ47" s="47"/>
+      <c r="DA47" s="47"/>
+      <c r="DB47" s="47"/>
+      <c r="DC47" s="47"/>
+      <c r="DD47" s="47"/>
+      <c r="DE47" s="47"/>
+      <c r="DF47" s="47"/>
+      <c r="DG47" s="47"/>
+      <c r="DH47" s="47"/>
+      <c r="DI47" s="47"/>
+      <c r="DJ47" s="47"/>
+      <c r="DK47" s="47"/>
+      <c r="DL47" s="47"/>
+      <c r="DM47" s="47"/>
+      <c r="DN47" s="47"/>
+      <c r="DO47" s="44"/>
+      <c r="DP47" s="44"/>
+      <c r="DQ47" s="44"/>
+      <c r="DR47" s="44"/>
+      <c r="DS47" s="44"/>
+      <c r="DT47" s="44"/>
+      <c r="DU47" s="44"/>
+      <c r="DV47" s="44"/>
+      <c r="DW47" s="44"/>
+      <c r="DX47" s="44"/>
+      <c r="DY47" s="44"/>
+      <c r="DZ47" s="44"/>
+      <c r="EA47" s="44"/>
+      <c r="EB47" s="44"/>
+      <c r="EC47" s="83"/>
+      <c r="ED47" s="83"/>
+      <c r="EE47" s="83"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="57">
-        <v>45783.0</v>
-      </c>
-      <c r="B48" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="37"/>
-      <c r="Z48" s="37"/>
-      <c r="AA48" s="37"/>
-      <c r="AB48" s="37"/>
-      <c r="AC48" s="37"/>
-      <c r="AD48" s="37"/>
-      <c r="AE48" s="37"/>
-      <c r="AF48" s="37"/>
-      <c r="AG48" s="37"/>
-      <c r="AH48" s="37"/>
-      <c r="AI48" s="37"/>
-      <c r="AJ48" s="37"/>
-      <c r="AK48" s="37"/>
-      <c r="AL48" s="37"/>
-      <c r="AM48" s="37"/>
-      <c r="AN48" s="37"/>
-      <c r="AO48" s="37"/>
-      <c r="AP48" s="37"/>
-      <c r="AQ48" s="37"/>
-      <c r="AR48" s="37"/>
-      <c r="AS48" s="37"/>
-      <c r="AT48" s="37"/>
-      <c r="AU48" s="37"/>
-      <c r="AV48" s="37"/>
-      <c r="AW48" s="37"/>
-      <c r="AX48" s="37"/>
-      <c r="AY48" s="37"/>
-      <c r="AZ48" s="37"/>
-      <c r="BA48" s="37"/>
-      <c r="BB48" s="37"/>
-      <c r="BC48" s="37"/>
-      <c r="BD48" s="37"/>
-      <c r="BE48" s="37"/>
-      <c r="BF48" s="37"/>
-      <c r="BG48" s="37"/>
-      <c r="BH48" s="37"/>
-      <c r="BI48" s="37"/>
-      <c r="BJ48" s="37"/>
-      <c r="BK48" s="37"/>
-      <c r="BL48" s="37"/>
-      <c r="BM48" s="37"/>
-      <c r="BN48" s="37"/>
-      <c r="BO48" s="37"/>
-      <c r="BP48" s="37"/>
-      <c r="BQ48" s="37"/>
-      <c r="BR48" s="37"/>
-      <c r="BS48" s="37"/>
-      <c r="BT48" s="37"/>
-      <c r="BU48" s="37"/>
-      <c r="BV48" s="37"/>
-      <c r="BW48" s="37"/>
-      <c r="BX48" s="37"/>
-      <c r="BY48" s="37"/>
-      <c r="BZ48" s="37"/>
-      <c r="CA48" s="37"/>
-      <c r="CB48" s="37"/>
-      <c r="CC48" s="37"/>
-      <c r="CD48" s="37"/>
-      <c r="CE48" s="37"/>
-      <c r="CF48" s="37"/>
-      <c r="CG48" s="37"/>
-      <c r="CH48" s="37"/>
-      <c r="CI48" s="37"/>
-      <c r="CJ48" s="37"/>
-      <c r="CK48" s="37"/>
-      <c r="CL48" s="37"/>
-      <c r="CM48" s="37"/>
-      <c r="CN48" s="37"/>
-      <c r="CO48" s="37"/>
-      <c r="CP48" s="37"/>
-      <c r="CQ48" s="37"/>
-      <c r="CR48" s="37"/>
-      <c r="CS48" s="37"/>
-      <c r="CT48" s="37"/>
-      <c r="CU48" s="37"/>
-      <c r="CV48" s="37"/>
-      <c r="CW48" s="37"/>
-      <c r="CX48" s="37"/>
-      <c r="CY48" s="37"/>
-      <c r="CZ48" s="37"/>
-      <c r="DA48" s="37"/>
-      <c r="DB48" s="37"/>
-      <c r="DC48" s="37"/>
-      <c r="DD48" s="37"/>
-      <c r="DE48" s="37"/>
-      <c r="DF48" s="37"/>
-      <c r="DG48" s="37"/>
-      <c r="DH48" s="37"/>
-      <c r="DI48" s="37"/>
-      <c r="DJ48" s="37"/>
-      <c r="DK48" s="37"/>
-      <c r="DL48" s="37"/>
-      <c r="DM48" s="37"/>
-      <c r="DN48" s="37"/>
-      <c r="DO48" s="37"/>
-      <c r="DP48" s="37"/>
-      <c r="DQ48" s="37"/>
-      <c r="DR48" s="37"/>
-      <c r="DS48" s="37"/>
-      <c r="DT48" s="37"/>
-      <c r="DU48" s="37"/>
-      <c r="DV48" s="37"/>
-      <c r="DW48" s="37"/>
-      <c r="DX48" s="37"/>
-      <c r="DY48" s="37"/>
-      <c r="DZ48" s="37"/>
-      <c r="EA48" s="37"/>
-      <c r="EB48" s="37"/>
-      <c r="EC48" s="33"/>
-      <c r="ED48" s="33"/>
-      <c r="EE48" s="33"/>
+      <c r="V48" s="89"/>
+      <c r="W48" s="89"/>
+      <c r="X48" s="89"/>
+      <c r="EC48" s="90"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="EC49" s="68"/>
+      <c r="V49" s="91"/>
+      <c r="W49" s="91"/>
+      <c r="X49" s="91"/>
+      <c r="EC49" s="90"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="EC50" s="68"/>
+      <c r="V50" s="91"/>
+      <c r="W50" s="91"/>
+      <c r="X50" s="91"/>
+      <c r="EC50" s="90"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="69" t="s">
+      <c r="V51" s="91"/>
+      <c r="W51" s="91"/>
+      <c r="X51" s="91"/>
+      <c r="EC51" s="90"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="EC52" s="90"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="EC53" s="90"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="EC54" s="90"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="B55" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="70" t="s">
+      <c r="C55" s="93" t="s">
         <v>76</v>
-      </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="71"/>
-      <c r="W51" s="71"/>
-      <c r="X51" s="71"/>
-      <c r="EC51" s="68"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="66"/>
-      <c r="C52" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="74"/>
-      <c r="W52" s="74"/>
-      <c r="X52" s="74"/>
-      <c r="EC52" s="68"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="66"/>
-      <c r="C53" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="77"/>
-      <c r="W53" s="77"/>
-      <c r="X53" s="77"/>
-      <c r="EC53" s="68"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="66"/>
-      <c r="C54" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="74"/>
-      <c r="W54" s="74"/>
-      <c r="X54" s="74"/>
-      <c r="EC54" s="68"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="66"/>
-      <c r="C55" s="79" t="s">
-        <v>84</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -7548,8 +7387,8 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="14"/>
-      <c r="J55" s="73" t="s">
-        <v>85</v>
+      <c r="J55" s="93" t="s">
+        <v>77</v>
       </c>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
@@ -7562,15 +7401,12 @@
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
       <c r="U55" s="14"/>
-      <c r="V55" s="74"/>
-      <c r="W55" s="74"/>
-      <c r="X55" s="74"/>
-      <c r="EC55" s="68"/>
+      <c r="EC55" s="90"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="66"/>
-      <c r="C56" s="80" t="s">
-        <v>86</v>
+      <c r="B56" s="94"/>
+      <c r="C56" s="95" t="s">
+        <v>78</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -7578,8 +7414,8 @@
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="14"/>
-      <c r="J56" s="73" t="s">
-        <v>87</v>
+      <c r="J56" s="96" t="s">
+        <v>79</v>
       </c>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
@@ -7592,200 +7428,307 @@
       <c r="S56" s="13"/>
       <c r="T56" s="13"/>
       <c r="U56" s="14"/>
-      <c r="V56" s="74"/>
-      <c r="W56" s="74"/>
-      <c r="X56" s="74"/>
-      <c r="EC56" s="68"/>
+      <c r="EC56" s="90"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="EC57" s="68"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="14"/>
+      <c r="EC57" s="90"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="EC58" s="68"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="14"/>
+      <c r="EC58" s="90"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="EC59" s="68"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="14"/>
+      <c r="EC59" s="90"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="EC60" s="68"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="14"/>
+      <c r="EC60" s="90"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="EC61" s="68"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="102" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="14"/>
+      <c r="EC61" s="90"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="EC62" s="68"/>
+      <c r="EC62" s="90"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="EC63" s="68"/>
+      <c r="EC63" s="90"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="EC64" s="68"/>
+      <c r="EC64" s="90"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="EC65" s="68"/>
+      <c r="EC65" s="90"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="EC66" s="68"/>
+      <c r="EC66" s="90"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="EC67" s="68"/>
+      <c r="EC67" s="90"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="EC68" s="68"/>
+      <c r="EC68" s="90"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="EC69" s="68"/>
+      <c r="EC69" s="90"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="EC70" s="68"/>
+      <c r="EC70" s="90"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="EC71" s="68"/>
+      <c r="EC71" s="90"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="EC72" s="68"/>
+      <c r="EC72" s="90"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="EC73" s="68"/>
+      <c r="EC73" s="90"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="EC74" s="68"/>
+      <c r="EC74" s="90"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="EC75" s="68"/>
+      <c r="EC75" s="90"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="EC76" s="68"/>
+      <c r="EC76" s="90"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="EC77" s="68"/>
+      <c r="EC77" s="90"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="EC78" s="68"/>
+      <c r="EC78" s="90"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="EC79" s="68"/>
+      <c r="EC79" s="90"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="EC80" s="68"/>
+      <c r="EC80" s="90"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="EC81" s="68"/>
+      <c r="EC81" s="90"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="EC82" s="68"/>
+      <c r="EC82" s="90"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="EC83" s="68"/>
+      <c r="EC83" s="90"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="EC84" s="68"/>
+      <c r="EC84" s="90"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="EC85" s="68"/>
+      <c r="EC85" s="90"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="EC86" s="68"/>
+      <c r="EC86" s="90"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="EC87" s="68"/>
+      <c r="EC87" s="90"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="EC88" s="68"/>
+      <c r="EC88" s="90"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="EC89" s="68"/>
+      <c r="EC89" s="90"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="EC90" s="68"/>
+      <c r="EC90" s="90"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="EC91" s="68"/>
+      <c r="EC91" s="90"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="EC92" s="68"/>
+      <c r="EC92" s="90"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="EC93" s="68"/>
+      <c r="EC93" s="90"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="EC94" s="68"/>
+      <c r="EC94" s="90"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="EC95" s="68"/>
+      <c r="EC95" s="90"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="EC96" s="68"/>
+      <c r="EC96" s="90"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="EC97" s="68"/>
+      <c r="EC97" s="90"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="EC98" s="68"/>
+      <c r="EC98" s="90"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="EC99" s="68"/>
+      <c r="EC99" s="90"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="EC100" s="68"/>
+      <c r="EC100" s="90"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="EC101" s="68"/>
+      <c r="EC101" s="90"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="EC102" s="68"/>
+      <c r="EC102" s="90"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="EC103" s="68"/>
+      <c r="EC103" s="90"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="EC104" s="68"/>
+      <c r="EC104" s="90"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="EC105" s="68"/>
+      <c r="EC105" s="90"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="EC106" s="68"/>
+      <c r="EC106" s="90"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="EC107" s="68"/>
+      <c r="EC107" s="90"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="EC108" s="68"/>
+      <c r="EC108" s="90"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="EC109" s="68"/>
+      <c r="EC109" s="90"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="EC110" s="68"/>
+      <c r="EC110" s="90"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="EC111" s="68"/>
+      <c r="EC111" s="90"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="EC112" s="68"/>
+      <c r="EC112" s="90"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="EC113" s="68"/>
+      <c r="EC113" s="90"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="EC114" s="68"/>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="EC115" s="68"/>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="EC116" s="68"/>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
-      <c r="EC117" s="68"/>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
-      <c r="EC118" s="68"/>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="EC119" s="68"/>
-    </row>
+      <c r="EC114" s="90"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
     <row r="120" ht="15.75" customHeight="1"/>
     <row r="121" ht="15.75" customHeight="1"/>
     <row r="122" ht="15.75" customHeight="1"/>
@@ -8621,13 +8564,8 @@
     <row r="952" ht="15.75" customHeight="1"/>
     <row r="953" ht="15.75" customHeight="1"/>
     <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="44">
     <mergeCell ref="DD9:DJ9"/>
     <mergeCell ref="DK9:DQ9"/>
     <mergeCell ref="DR9:DX9"/>
@@ -8644,17 +8582,19 @@
     <mergeCell ref="C8:EE8"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="DO10:EE10"/>
-    <mergeCell ref="J54:U54"/>
+    <mergeCell ref="J58:U58"/>
+    <mergeCell ref="J59:U59"/>
+    <mergeCell ref="C60:I60"/>
+    <mergeCell ref="J60:U60"/>
+    <mergeCell ref="C61:I61"/>
+    <mergeCell ref="J61:U61"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="C55:I55"/>
     <mergeCell ref="J55:U55"/>
     <mergeCell ref="C56:I56"/>
     <mergeCell ref="J56:U56"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="C51:I51"/>
-    <mergeCell ref="J51:U51"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="J52:U52"/>
-    <mergeCell ref="J53:U53"/>
+    <mergeCell ref="J57:U57"/>
     <mergeCell ref="X9:AD9"/>
     <mergeCell ref="AE9:AK9"/>
     <mergeCell ref="AL9:AR9"/>
@@ -8667,9 +8607,9 @@
     <mergeCell ref="CI9:CO9"/>
     <mergeCell ref="CP9:CV9"/>
     <mergeCell ref="CW9:DC9"/>
-    <mergeCell ref="C53:I53"/>
-    <mergeCell ref="C54:I54"/>
-    <mergeCell ref="C55:I55"/>
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="C58:I58"/>
+    <mergeCell ref="C59:I59"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
